--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="321">
   <si>
     <t>p21_can</t>
   </si>
@@ -109,7 +109,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>CORREO</t>
@@ -1397,13 +1400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF218"/>
+  <dimension ref="A1:AG218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,19 +1503,22 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1521,13 +1527,13 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="Z2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1541,19 +1547,22 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1562,13 +1571,13 @@
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1582,19 +1591,22 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1603,13 +1615,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1623,19 +1635,22 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -1644,13 +1659,13 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1664,19 +1679,22 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1685,13 +1703,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1705,19 +1723,22 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -1726,13 +1747,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1746,19 +1767,22 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -1767,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1787,19 +1811,22 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1808,13 +1835,13 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1828,19 +1855,22 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1849,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1869,19 +1899,22 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1890,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1910,19 +1943,22 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1931,13 +1967,13 @@
         <v>10</v>
       </c>
       <c r="V12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1951,19 +1987,22 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -1972,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="V13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1992,19 +2031,22 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -2013,13 +2055,13 @@
         <v>10</v>
       </c>
       <c r="V14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W14" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2033,19 +2075,22 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -2054,13 +2099,13 @@
         <v>12</v>
       </c>
       <c r="V15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2074,19 +2119,22 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T16">
         <v>7</v>
@@ -2095,13 +2143,13 @@
         <v>13</v>
       </c>
       <c r="V16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W16" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2115,19 +2163,22 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T17">
         <v>7</v>
@@ -2136,13 +2187,13 @@
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2156,19 +2207,22 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T18">
         <v>8</v>
@@ -2177,13 +2231,13 @@
         <v>14</v>
       </c>
       <c r="V18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W18" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2197,19 +2251,22 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T19">
         <v>9</v>
@@ -2218,13 +2275,13 @@
         <v>15</v>
       </c>
       <c r="V19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W19" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2238,19 +2295,22 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T20">
         <v>10</v>
@@ -2259,13 +2319,13 @@
         <v>16</v>
       </c>
       <c r="V20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W20" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2279,19 +2339,22 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2300,13 +2363,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2320,19 +2383,22 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2341,13 +2407,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2361,19 +2427,22 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -2382,13 +2451,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2402,19 +2471,22 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -2423,13 +2495,13 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2443,19 +2515,22 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T25">
         <v>11</v>
@@ -2464,13 +2539,13 @@
         <v>17</v>
       </c>
       <c r="V25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2484,19 +2559,22 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T26">
         <v>11</v>
@@ -2505,13 +2583,13 @@
         <v>17</v>
       </c>
       <c r="V26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2525,19 +2603,22 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T27">
         <v>11</v>
@@ -2546,13 +2627,13 @@
         <v>17</v>
       </c>
       <c r="V27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -2566,19 +2647,22 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T28">
         <v>11</v>
@@ -2587,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="V28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -2607,19 +2691,22 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T29">
         <v>11</v>
@@ -2628,13 +2715,13 @@
         <v>17</v>
       </c>
       <c r="V29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -2648,19 +2735,22 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T30">
         <v>11</v>
@@ -2669,13 +2759,13 @@
         <v>17</v>
       </c>
       <c r="V30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -2689,19 +2779,22 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T31">
         <v>12</v>
@@ -2710,13 +2803,13 @@
         <v>18</v>
       </c>
       <c r="V31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W31" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -2730,19 +2823,22 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T32">
         <v>13</v>
@@ -2751,13 +2847,13 @@
         <v>20</v>
       </c>
       <c r="V32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W32" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -2771,19 +2867,22 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T33">
         <v>13</v>
@@ -2792,13 +2891,13 @@
         <v>20</v>
       </c>
       <c r="V33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W33" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -2812,19 +2911,22 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T34">
         <v>14</v>
@@ -2833,13 +2935,13 @@
         <v>21</v>
       </c>
       <c r="V34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -2853,19 +2955,22 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T35">
         <v>14</v>
@@ -2874,13 +2979,13 @@
         <v>21</v>
       </c>
       <c r="V35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W35" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -2894,19 +2999,22 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T36">
         <v>15</v>
@@ -2915,13 +3023,13 @@
         <v>22</v>
       </c>
       <c r="V36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -2935,19 +3043,22 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T37">
         <v>15</v>
@@ -2956,13 +3067,13 @@
         <v>22</v>
       </c>
       <c r="V37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W37" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -2976,19 +3087,22 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T38">
         <v>16</v>
@@ -2997,13 +3111,13 @@
         <v>25</v>
       </c>
       <c r="V38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -3017,19 +3131,22 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T39">
         <v>16</v>
@@ -3038,13 +3155,13 @@
         <v>25</v>
       </c>
       <c r="V39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W39" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -3058,19 +3175,22 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T40">
         <v>16</v>
@@ -3079,13 +3199,13 @@
         <v>25</v>
       </c>
       <c r="V40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W40" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -3099,19 +3219,22 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T41">
         <v>17</v>
@@ -3120,13 +3243,13 @@
         <v>26</v>
       </c>
       <c r="V41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W41" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -3140,19 +3263,22 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T42">
         <v>17</v>
@@ -3161,13 +3287,13 @@
         <v>26</v>
       </c>
       <c r="V42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W42" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -3181,19 +3307,22 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T43">
         <v>17</v>
@@ -3202,13 +3331,13 @@
         <v>26</v>
       </c>
       <c r="V43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W43" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -3222,19 +3351,22 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T44">
         <v>17</v>
@@ -3243,13 +3375,13 @@
         <v>26</v>
       </c>
       <c r="V44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W44" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -3263,19 +3395,22 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T45">
         <v>17</v>
@@ -3284,13 +3419,13 @@
         <v>26</v>
       </c>
       <c r="V45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W45" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -3304,19 +3439,22 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T46">
         <v>17</v>
@@ -3325,13 +3463,13 @@
         <v>26</v>
       </c>
       <c r="V46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W46" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -3345,19 +3483,22 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T47">
         <v>17</v>
@@ -3366,13 +3507,13 @@
         <v>26</v>
       </c>
       <c r="V47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W47" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -3386,19 +3527,22 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T48">
         <v>17</v>
@@ -3407,13 +3551,13 @@
         <v>26</v>
       </c>
       <c r="V48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -3427,19 +3571,22 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T49">
         <v>18</v>
@@ -3448,13 +3595,13 @@
         <v>27</v>
       </c>
       <c r="V49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -3468,19 +3615,22 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T50">
         <v>19</v>
@@ -3489,13 +3639,13 @@
         <v>30</v>
       </c>
       <c r="V50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -3509,19 +3659,22 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T51">
         <v>19</v>
@@ -3530,13 +3683,13 @@
         <v>30</v>
       </c>
       <c r="V51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -3550,19 +3703,22 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T52">
         <v>19</v>
@@ -3571,13 +3727,13 @@
         <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -3591,19 +3747,22 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T53">
         <v>19</v>
@@ -3612,13 +3771,13 @@
         <v>30</v>
       </c>
       <c r="V53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W53" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -3632,19 +3791,22 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T54">
         <v>19</v>
@@ -3653,13 +3815,13 @@
         <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W54" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -3673,19 +3835,22 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T55">
         <v>20</v>
@@ -3694,13 +3859,13 @@
         <v>33</v>
       </c>
       <c r="V55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W55" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -3714,19 +3879,22 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T56">
         <v>21</v>
@@ -3735,13 +3903,13 @@
         <v>34</v>
       </c>
       <c r="V56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W56" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -3755,19 +3923,22 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T57">
         <v>21</v>
@@ -3776,13 +3947,13 @@
         <v>34</v>
       </c>
       <c r="V57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W57" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -3796,19 +3967,22 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T58">
         <v>21</v>
@@ -3817,13 +3991,13 @@
         <v>34</v>
       </c>
       <c r="V58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W58" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z58" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -3837,19 +4011,22 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T59">
         <v>21</v>
@@ -3858,13 +4035,13 @@
         <v>34</v>
       </c>
       <c r="V59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W59" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -3878,19 +4055,22 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T60">
         <v>21</v>
@@ -3899,13 +4079,13 @@
         <v>34</v>
       </c>
       <c r="V60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W60" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -3919,19 +4099,22 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T61">
         <v>21</v>
@@ -3940,13 +4123,13 @@
         <v>34</v>
       </c>
       <c r="V61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W61" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -3960,19 +4143,22 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T62">
         <v>22</v>
@@ -3981,13 +4167,13 @@
         <v>37</v>
       </c>
       <c r="V62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W62" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z62" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -4001,19 +4187,22 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T63">
         <v>22</v>
@@ -4022,13 +4211,13 @@
         <v>37</v>
       </c>
       <c r="V63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W63" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z63" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -4042,19 +4231,22 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T64">
         <v>22</v>
@@ -4063,13 +4255,13 @@
         <v>37</v>
       </c>
       <c r="V64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W64" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -4083,19 +4275,22 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T65">
         <v>22</v>
@@ -4104,13 +4299,13 @@
         <v>37</v>
       </c>
       <c r="V65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W65" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z65" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -4124,19 +4319,22 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T66">
         <v>22</v>
@@ -4145,13 +4343,13 @@
         <v>37</v>
       </c>
       <c r="V66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W66" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -4165,19 +4363,22 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T67">
         <v>23</v>
@@ -4186,13 +4387,13 @@
         <v>38</v>
       </c>
       <c r="V67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W67" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z67" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -4206,19 +4407,22 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -4227,13 +4431,13 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W68" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -4247,19 +4451,22 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T69">
         <v>24</v>
@@ -4268,13 +4475,13 @@
         <v>51</v>
       </c>
       <c r="V69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W69" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -4288,19 +4495,22 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T70">
         <v>24</v>
@@ -4309,13 +4519,13 @@
         <v>51</v>
       </c>
       <c r="V70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W70" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -4329,19 +4539,22 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T71">
         <v>24</v>
@@ -4350,13 +4563,13 @@
         <v>51</v>
       </c>
       <c r="V71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W71" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z71" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -4370,19 +4583,22 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T72">
         <v>24</v>
@@ -4391,13 +4607,13 @@
         <v>51</v>
       </c>
       <c r="V72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W72" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z72" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -4411,19 +4627,22 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T73">
         <v>24</v>
@@ -4432,13 +4651,13 @@
         <v>51</v>
       </c>
       <c r="V73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W73" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -4452,19 +4671,22 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T74">
         <v>24</v>
@@ -4473,13 +4695,13 @@
         <v>51</v>
       </c>
       <c r="V74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W74" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -4493,19 +4715,22 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T75">
         <v>25</v>
@@ -4514,13 +4739,13 @@
         <v>52</v>
       </c>
       <c r="V75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W75" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z75" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -4534,19 +4759,22 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T76">
         <v>26</v>
@@ -4555,13 +4783,13 @@
         <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W76" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -4575,19 +4803,22 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T77">
         <v>26</v>
@@ -4596,13 +4827,13 @@
         <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W77" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -4616,19 +4847,22 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T78">
         <v>26</v>
@@ -4637,13 +4871,13 @@
         <v>55</v>
       </c>
       <c r="V78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W78" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -4657,19 +4891,22 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T79">
         <v>26</v>
@@ -4678,13 +4915,13 @@
         <v>55</v>
       </c>
       <c r="V79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W79" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -4698,19 +4935,22 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T80">
         <v>26</v>
@@ -4719,13 +4959,13 @@
         <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W80" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -4739,19 +4979,22 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T81">
         <v>27</v>
@@ -4760,13 +5003,13 @@
         <v>56</v>
       </c>
       <c r="V81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W81" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -4780,19 +5023,22 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T82">
         <v>28</v>
@@ -4801,13 +5047,13 @@
         <v>57</v>
       </c>
       <c r="V82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W82" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -4821,19 +5067,22 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T83">
         <v>28</v>
@@ -4842,13 +5091,13 @@
         <v>57</v>
       </c>
       <c r="V83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W83" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -4862,19 +5111,22 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T84">
         <v>28</v>
@@ -4883,13 +5135,13 @@
         <v>57</v>
       </c>
       <c r="V84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W84" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -4903,19 +5155,22 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T85">
         <v>28</v>
@@ -4924,13 +5179,13 @@
         <v>57</v>
       </c>
       <c r="V85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W85" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z85" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -4944,19 +5199,22 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T86">
         <v>29</v>
@@ -4965,13 +5223,13 @@
         <v>58</v>
       </c>
       <c r="V86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W86" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -4985,19 +5243,22 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T87">
         <v>29</v>
@@ -5006,13 +5267,13 @@
         <v>58</v>
       </c>
       <c r="V87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W87" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -5026,19 +5287,22 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T88">
         <v>30</v>
@@ -5047,13 +5311,13 @@
         <v>59</v>
       </c>
       <c r="V88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W88" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -5067,19 +5331,22 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T89">
         <v>30</v>
@@ -5088,13 +5355,13 @@
         <v>59</v>
       </c>
       <c r="V89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W89" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -5108,19 +5375,22 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T90">
         <v>30</v>
@@ -5129,13 +5399,13 @@
         <v>59</v>
       </c>
       <c r="V90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W90" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z90" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -5149,19 +5419,22 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T91">
         <v>30</v>
@@ -5170,13 +5443,13 @@
         <v>59</v>
       </c>
       <c r="V91" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W91" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -5190,19 +5463,22 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T92">
         <v>30</v>
@@ -5211,13 +5487,13 @@
         <v>59</v>
       </c>
       <c r="V92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W92" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z92" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -5231,19 +5507,22 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T93">
         <v>30</v>
@@ -5252,13 +5531,13 @@
         <v>59</v>
       </c>
       <c r="V93" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W93" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z93" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -5272,19 +5551,22 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T94">
         <v>30</v>
@@ -5293,13 +5575,13 @@
         <v>59</v>
       </c>
       <c r="V94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W94" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z94" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -5313,19 +5595,22 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T95">
         <v>30</v>
@@ -5334,13 +5619,13 @@
         <v>59</v>
       </c>
       <c r="V95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W95" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z95" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -5354,19 +5639,22 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T96">
         <v>30</v>
@@ -5375,13 +5663,13 @@
         <v>59</v>
       </c>
       <c r="V96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W96" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z96" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -5395,19 +5683,22 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T97">
         <v>31</v>
@@ -5416,13 +5707,13 @@
         <v>60</v>
       </c>
       <c r="V97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W97" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z97" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -5436,19 +5727,22 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T98">
         <v>32</v>
@@ -5457,13 +5751,13 @@
         <v>61</v>
       </c>
       <c r="V98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W98" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z98" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -5477,19 +5771,22 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T99">
         <v>32</v>
@@ -5498,13 +5795,13 @@
         <v>61</v>
       </c>
       <c r="V99" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W99" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z99" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -5518,19 +5815,22 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T100">
         <v>32</v>
@@ -5539,13 +5839,13 @@
         <v>61</v>
       </c>
       <c r="V100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W100" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -5559,19 +5859,22 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T101">
         <v>33</v>
@@ -5580,13 +5883,13 @@
         <v>63</v>
       </c>
       <c r="V101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W101" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -5600,19 +5903,22 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T102">
         <v>33</v>
@@ -5621,13 +5927,13 @@
         <v>63</v>
       </c>
       <c r="V102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W102" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -5641,19 +5947,22 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T103">
         <v>33</v>
@@ -5662,13 +5971,13 @@
         <v>63</v>
       </c>
       <c r="V103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W103" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -5682,19 +5991,22 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T104">
         <v>33</v>
@@ -5703,13 +6015,13 @@
         <v>63</v>
       </c>
       <c r="V104" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W104" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z104" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -5723,19 +6035,22 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T105">
         <v>33</v>
@@ -5744,13 +6059,13 @@
         <v>63</v>
       </c>
       <c r="V105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W105" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -5764,19 +6079,22 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T106">
         <v>33</v>
@@ -5785,13 +6103,13 @@
         <v>63</v>
       </c>
       <c r="V106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W106" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -5805,19 +6123,22 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T107">
         <v>33</v>
@@ -5826,13 +6147,13 @@
         <v>63</v>
       </c>
       <c r="V107" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W107" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -5846,19 +6167,22 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T108">
         <v>34</v>
@@ -5867,13 +6191,13 @@
         <v>64</v>
       </c>
       <c r="V108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W108" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z108" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -5887,19 +6211,22 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T109">
         <v>35</v>
@@ -5908,13 +6235,13 @@
         <v>75</v>
       </c>
       <c r="V109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W109" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Z109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -5928,19 +6255,22 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T110">
         <v>36</v>
@@ -5949,13 +6279,13 @@
         <v>77</v>
       </c>
       <c r="V110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W110" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z110" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -5969,19 +6299,22 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T111">
         <v>36</v>
@@ -5990,13 +6323,13 @@
         <v>77</v>
       </c>
       <c r="V111" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W111" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z111" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -6010,19 +6343,22 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T112">
         <v>36</v>
@@ -6031,13 +6367,13 @@
         <v>77</v>
       </c>
       <c r="V112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W112" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -6051,19 +6387,22 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T113">
         <v>36</v>
@@ -6072,13 +6411,13 @@
         <v>77</v>
       </c>
       <c r="V113" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W113" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -6092,19 +6431,22 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T114">
         <v>36</v>
@@ -6113,13 +6455,13 @@
         <v>77</v>
       </c>
       <c r="V114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W114" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -6133,19 +6475,22 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T115">
         <v>36</v>
@@ -6154,13 +6499,13 @@
         <v>77</v>
       </c>
       <c r="V115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W115" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -6174,19 +6519,22 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T116">
         <v>36</v>
@@ -6195,13 +6543,13 @@
         <v>77</v>
       </c>
       <c r="V116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W116" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -6215,19 +6563,22 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T117">
         <v>36</v>
@@ -6236,13 +6587,13 @@
         <v>77</v>
       </c>
       <c r="V117" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W117" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -6256,19 +6607,22 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T118">
         <v>36</v>
@@ -6277,13 +6631,13 @@
         <v>77</v>
       </c>
       <c r="V118" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W118" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -6297,19 +6651,22 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T119">
         <v>37</v>
@@ -6318,13 +6675,13 @@
         <v>78</v>
       </c>
       <c r="V119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W119" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z119" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -6338,19 +6695,22 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T120">
         <v>38</v>
@@ -6359,13 +6719,13 @@
         <v>80</v>
       </c>
       <c r="V120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W120" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z120" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -6379,19 +6739,22 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T121">
         <v>39</v>
@@ -6400,13 +6763,13 @@
         <v>81</v>
       </c>
       <c r="V121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W121" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z121" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -6420,19 +6783,22 @@
       <c r="AF121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T122">
         <v>39</v>
@@ -6441,13 +6807,13 @@
         <v>81</v>
       </c>
       <c r="V122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W122" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z122" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -6461,19 +6827,22 @@
       <c r="AF122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T123">
         <v>39</v>
@@ -6482,13 +6851,13 @@
         <v>81</v>
       </c>
       <c r="V123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W123" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z123" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -6502,19 +6871,22 @@
       <c r="AF123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T124">
         <v>39</v>
@@ -6523,13 +6895,13 @@
         <v>81</v>
       </c>
       <c r="V124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W124" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -6543,19 +6915,22 @@
       <c r="AF124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T125">
         <v>39</v>
@@ -6564,13 +6939,13 @@
         <v>81</v>
       </c>
       <c r="V125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W125" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z125" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -6584,19 +6959,22 @@
       <c r="AF125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T126">
         <v>39</v>
@@ -6605,13 +6983,13 @@
         <v>81</v>
       </c>
       <c r="V126" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W126" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z126" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -6625,19 +7003,22 @@
       <c r="AF126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T127">
         <v>39</v>
@@ -6646,13 +7027,13 @@
         <v>81</v>
       </c>
       <c r="V127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W127" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z127" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -6666,19 +7047,22 @@
       <c r="AF127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T128">
         <v>39</v>
@@ -6687,13 +7071,13 @@
         <v>81</v>
       </c>
       <c r="V128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W128" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z128" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -6707,19 +7091,22 @@
       <c r="AF128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T129">
         <v>39</v>
@@ -6728,13 +7115,13 @@
         <v>81</v>
       </c>
       <c r="V129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W129" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z129" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -6748,19 +7135,22 @@
       <c r="AF129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T130">
         <v>39</v>
@@ -6769,13 +7159,13 @@
         <v>81</v>
       </c>
       <c r="V130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W130" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -6789,19 +7179,22 @@
       <c r="AF130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T131">
         <v>40</v>
@@ -6810,13 +7203,13 @@
         <v>82</v>
       </c>
       <c r="V131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W131" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z131" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -6830,19 +7223,22 @@
       <c r="AF131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T132">
         <v>40</v>
@@ -6851,13 +7247,13 @@
         <v>82</v>
       </c>
       <c r="V132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W132" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z132" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -6871,19 +7267,22 @@
       <c r="AF132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T133">
         <v>40</v>
@@ -6892,13 +7291,13 @@
         <v>82</v>
       </c>
       <c r="V133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W133" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z133" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -6912,19 +7311,22 @@
       <c r="AF133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T134">
         <v>40</v>
@@ -6933,13 +7335,13 @@
         <v>82</v>
       </c>
       <c r="V134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W134" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -6953,19 +7355,22 @@
       <c r="AF134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T135">
         <v>41</v>
@@ -6974,13 +7379,13 @@
         <v>83</v>
       </c>
       <c r="V135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W135" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="Z135" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -6994,19 +7399,22 @@
       <c r="AF135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T136">
         <v>42</v>
@@ -7015,13 +7423,13 @@
         <v>84</v>
       </c>
       <c r="V136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W136" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z136" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -7035,19 +7443,22 @@
       <c r="AF136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T137">
         <v>42</v>
@@ -7056,13 +7467,13 @@
         <v>84</v>
       </c>
       <c r="V137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W137" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -7076,19 +7487,22 @@
       <c r="AF137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T138">
         <v>42</v>
@@ -7097,13 +7511,13 @@
         <v>84</v>
       </c>
       <c r="V138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W138" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -7117,19 +7531,22 @@
       <c r="AF138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T139">
         <v>42</v>
@@ -7138,13 +7555,13 @@
         <v>84</v>
       </c>
       <c r="V139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W139" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -7158,19 +7575,22 @@
       <c r="AF139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T140">
         <v>42</v>
@@ -7179,13 +7599,13 @@
         <v>84</v>
       </c>
       <c r="V140" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W140" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -7199,19 +7619,22 @@
       <c r="AF140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T141">
         <v>42</v>
@@ -7220,13 +7643,13 @@
         <v>84</v>
       </c>
       <c r="V141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W141" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z141" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -7240,19 +7663,22 @@
       <c r="AF141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:32">
+      <c r="AG141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T142">
         <v>43</v>
@@ -7261,13 +7687,13 @@
         <v>86</v>
       </c>
       <c r="V142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W142" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="Z142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -7281,19 +7707,22 @@
       <c r="AF142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:32">
+      <c r="AG142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T143">
         <v>44</v>
@@ -7302,13 +7731,13 @@
         <v>87</v>
       </c>
       <c r="V143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W143" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z143" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -7322,19 +7751,22 @@
       <c r="AF143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:32">
+      <c r="AG143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T144">
         <v>44</v>
@@ -7343,13 +7775,13 @@
         <v>87</v>
       </c>
       <c r="V144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W144" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z144" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -7363,19 +7795,22 @@
       <c r="AF144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:32">
+      <c r="AG144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T145">
         <v>44</v>
@@ -7384,13 +7819,13 @@
         <v>87</v>
       </c>
       <c r="V145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W145" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z145" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -7404,19 +7839,22 @@
       <c r="AF145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:32">
+      <c r="AG145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T146">
         <v>45</v>
@@ -7425,13 +7863,13 @@
         <v>88</v>
       </c>
       <c r="V146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W146" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -7445,19 +7883,22 @@
       <c r="AF146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:32">
+      <c r="AG146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T147">
         <v>45</v>
@@ -7466,13 +7907,13 @@
         <v>88</v>
       </c>
       <c r="V147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W147" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z147" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -7486,19 +7927,22 @@
       <c r="AF147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:32">
+      <c r="AG147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T148">
         <v>45</v>
@@ -7507,13 +7951,13 @@
         <v>88</v>
       </c>
       <c r="V148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W148" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -7527,19 +7971,22 @@
       <c r="AF148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:32">
+      <c r="AG148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T149">
         <v>45</v>
@@ -7548,13 +7995,13 @@
         <v>88</v>
       </c>
       <c r="V149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W149" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z149" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -7568,19 +8015,22 @@
       <c r="AF149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T150">
         <v>45</v>
@@ -7589,13 +8039,13 @@
         <v>88</v>
       </c>
       <c r="V150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W150" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z150" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -7609,19 +8059,22 @@
       <c r="AF150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T151">
         <v>46</v>
@@ -7630,13 +8083,13 @@
         <v>90</v>
       </c>
       <c r="V151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W151" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z151" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -7650,19 +8103,22 @@
       <c r="AF151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:32">
+      <c r="AG151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T152">
         <v>46</v>
@@ -7671,13 +8127,13 @@
         <v>90</v>
       </c>
       <c r="V152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W152" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z152" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -7691,19 +8147,22 @@
       <c r="AF152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:32">
+      <c r="AG152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T153">
         <v>46</v>
@@ -7712,13 +8171,13 @@
         <v>90</v>
       </c>
       <c r="V153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W153" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z153" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -7732,19 +8191,22 @@
       <c r="AF153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:32">
+      <c r="AG153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T154">
         <v>46</v>
@@ -7753,13 +8215,13 @@
         <v>90</v>
       </c>
       <c r="V154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W154" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z154" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -7773,19 +8235,22 @@
       <c r="AF154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:32">
+      <c r="AG154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T155">
         <v>46</v>
@@ -7794,13 +8259,13 @@
         <v>90</v>
       </c>
       <c r="V155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W155" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z155" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -7814,19 +8279,22 @@
       <c r="AF155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:32">
+      <c r="AG155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33">
       <c r="A156" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T156">
         <v>47</v>
@@ -7835,13 +8303,13 @@
         <v>91</v>
       </c>
       <c r="V156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W156" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -7855,19 +8323,22 @@
       <c r="AF156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:32">
+      <c r="AG156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T157">
         <v>47</v>
@@ -7876,13 +8347,13 @@
         <v>91</v>
       </c>
       <c r="V157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W157" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z157" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -7896,19 +8367,22 @@
       <c r="AF157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:32">
+      <c r="AG157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T158">
         <v>48</v>
@@ -7917,13 +8391,13 @@
         <v>92</v>
       </c>
       <c r="V158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W158" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z158" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -7937,19 +8411,22 @@
       <c r="AF158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T159">
         <v>49</v>
@@ -7958,13 +8435,13 @@
         <v>93</v>
       </c>
       <c r="V159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W159" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -7978,19 +8455,22 @@
       <c r="AF159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T160">
         <v>49</v>
@@ -7999,13 +8479,13 @@
         <v>93</v>
       </c>
       <c r="V160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W160" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -8019,19 +8499,22 @@
       <c r="AF160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:32">
+      <c r="AG160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T161">
         <v>49</v>
@@ -8040,13 +8523,13 @@
         <v>93</v>
       </c>
       <c r="V161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W161" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z161" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -8060,19 +8543,22 @@
       <c r="AF161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:32">
+      <c r="AG161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T162">
         <v>49</v>
@@ -8081,13 +8567,13 @@
         <v>93</v>
       </c>
       <c r="V162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W162" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -8101,19 +8587,22 @@
       <c r="AF162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:32">
+      <c r="AG162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T163">
         <v>49</v>
@@ -8122,13 +8611,13 @@
         <v>93</v>
       </c>
       <c r="V163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W163" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z163" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -8142,19 +8631,22 @@
       <c r="AF163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:32">
+      <c r="AG163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R164">
         <v>163</v>
       </c>
       <c r="S164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T164">
         <v>50</v>
@@ -8163,13 +8655,13 @@
         <v>94</v>
       </c>
       <c r="V164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W164" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z164" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC164">
         <v>0</v>
@@ -8183,19 +8675,22 @@
       <c r="AF164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:32">
+      <c r="AG164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R165">
         <v>164</v>
       </c>
       <c r="S165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T165">
         <v>50</v>
@@ -8204,13 +8699,13 @@
         <v>94</v>
       </c>
       <c r="V165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W165" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC165">
         <v>0</v>
@@ -8224,19 +8719,22 @@
       <c r="AF165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:32">
+      <c r="AG165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R166">
         <v>165</v>
       </c>
       <c r="S166" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T166">
         <v>51</v>
@@ -8245,13 +8743,13 @@
         <v>95</v>
       </c>
       <c r="V166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W166" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC166">
         <v>0</v>
@@ -8265,19 +8763,22 @@
       <c r="AF166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:32">
+      <c r="AG166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R167">
         <v>166</v>
       </c>
       <c r="S167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T167">
         <v>51</v>
@@ -8286,13 +8787,13 @@
         <v>95</v>
       </c>
       <c r="V167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W167" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z167" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC167">
         <v>0</v>
@@ -8306,19 +8807,22 @@
       <c r="AF167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:32">
+      <c r="AG167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R168">
         <v>167</v>
       </c>
       <c r="S168" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T168">
         <v>51</v>
@@ -8327,13 +8831,13 @@
         <v>95</v>
       </c>
       <c r="V168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W168" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z168" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC168">
         <v>0</v>
@@ -8347,19 +8851,22 @@
       <c r="AF168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:32">
+      <c r="AG168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R169">
         <v>168</v>
       </c>
       <c r="S169" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T169">
         <v>51</v>
@@ -8368,13 +8875,13 @@
         <v>95</v>
       </c>
       <c r="V169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W169" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z169" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC169">
         <v>0</v>
@@ -8388,19 +8895,22 @@
       <c r="AF169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:32">
+      <c r="AG169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33">
       <c r="A170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R170">
         <v>169</v>
       </c>
       <c r="S170" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T170">
         <v>51</v>
@@ -8409,13 +8919,13 @@
         <v>95</v>
       </c>
       <c r="V170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W170" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z170" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC170">
         <v>0</v>
@@ -8429,19 +8939,22 @@
       <c r="AF170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:32">
+      <c r="AG170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R171">
         <v>170</v>
       </c>
       <c r="S171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T171">
         <v>51</v>
@@ -8450,13 +8963,13 @@
         <v>95</v>
       </c>
       <c r="V171" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W171" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z171" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC171">
         <v>0</v>
@@ -8470,19 +8983,22 @@
       <c r="AF171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:32">
+      <c r="AG171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R172">
         <v>171</v>
       </c>
       <c r="S172" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T172">
         <v>51</v>
@@ -8491,13 +9007,13 @@
         <v>95</v>
       </c>
       <c r="V172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W172" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z172" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC172">
         <v>0</v>
@@ -8511,19 +9027,22 @@
       <c r="AF172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:32">
+      <c r="AG172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R173">
         <v>172</v>
       </c>
       <c r="S173" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T173">
         <v>52</v>
@@ -8532,13 +9051,13 @@
         <v>96</v>
       </c>
       <c r="V173" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W173" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Z173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC173">
         <v>0</v>
@@ -8552,19 +9071,22 @@
       <c r="AF173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:32">
+      <c r="AG173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R174">
         <v>173</v>
       </c>
       <c r="S174" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T174">
         <v>53</v>
@@ -8573,13 +9095,13 @@
         <v>98</v>
       </c>
       <c r="V174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W174" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC174">
         <v>0</v>
@@ -8593,19 +9115,22 @@
       <c r="AF174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:32">
+      <c r="AG174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R175">
         <v>174</v>
       </c>
       <c r="S175" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T175">
         <v>53</v>
@@ -8614,13 +9139,13 @@
         <v>98</v>
       </c>
       <c r="V175" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W175" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z175" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC175">
         <v>0</v>
@@ -8634,19 +9159,22 @@
       <c r="AF175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:32">
+      <c r="AG175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R176">
         <v>175</v>
       </c>
       <c r="S176" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T176">
         <v>54</v>
@@ -8655,13 +9183,13 @@
         <v>99</v>
       </c>
       <c r="V176" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W176" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z176" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC176">
         <v>0</v>
@@ -8675,19 +9203,22 @@
       <c r="AF176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:32">
+      <c r="AG176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R177">
         <v>176</v>
       </c>
       <c r="S177" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T177">
         <v>55</v>
@@ -8696,13 +9227,13 @@
         <v>100</v>
       </c>
       <c r="V177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W177" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC177">
         <v>0</v>
@@ -8716,19 +9247,22 @@
       <c r="AF177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:32">
+      <c r="AG177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R178">
         <v>177</v>
       </c>
       <c r="S178" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T178">
         <v>55</v>
@@ -8737,13 +9271,13 @@
         <v>100</v>
       </c>
       <c r="V178" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W178" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z178" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC178">
         <v>0</v>
@@ -8757,19 +9291,22 @@
       <c r="AF178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:32">
+      <c r="AG178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R179">
         <v>178</v>
       </c>
       <c r="S179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T179">
         <v>55</v>
@@ -8778,13 +9315,13 @@
         <v>100</v>
       </c>
       <c r="V179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W179" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z179" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC179">
         <v>0</v>
@@ -8798,19 +9335,22 @@
       <c r="AF179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:32">
+      <c r="AG179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R180">
         <v>179</v>
       </c>
       <c r="S180" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T180">
         <v>55</v>
@@ -8819,13 +9359,13 @@
         <v>100</v>
       </c>
       <c r="V180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W180" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z180" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC180">
         <v>0</v>
@@ -8839,19 +9379,22 @@
       <c r="AF180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:32">
+      <c r="AG180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R181">
         <v>180</v>
       </c>
       <c r="S181" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T181">
         <v>55</v>
@@ -8860,13 +9403,13 @@
         <v>100</v>
       </c>
       <c r="V181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W181" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z181" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC181">
         <v>0</v>
@@ -8880,19 +9423,22 @@
       <c r="AF181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:32">
+      <c r="AG181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B182" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R182">
         <v>181</v>
       </c>
       <c r="S182" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T182">
         <v>56</v>
@@ -8901,13 +9447,13 @@
         <v>101</v>
       </c>
       <c r="V182" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W182" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC182">
         <v>0</v>
@@ -8921,19 +9467,22 @@
       <c r="AF182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:32">
+      <c r="AG182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B183" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R183">
         <v>182</v>
       </c>
       <c r="S183" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T183">
         <v>56</v>
@@ -8942,13 +9491,13 @@
         <v>101</v>
       </c>
       <c r="V183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W183" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC183">
         <v>0</v>
@@ -8962,19 +9511,22 @@
       <c r="AF183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:32">
+      <c r="AG183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R184">
         <v>183</v>
       </c>
       <c r="S184" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T184">
         <v>56</v>
@@ -8983,13 +9535,13 @@
         <v>101</v>
       </c>
       <c r="V184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W184" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC184">
         <v>0</v>
@@ -9003,19 +9555,22 @@
       <c r="AF184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:32">
+      <c r="AG184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B185" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R185">
         <v>184</v>
       </c>
       <c r="S185" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T185">
         <v>56</v>
@@ -9024,13 +9579,13 @@
         <v>101</v>
       </c>
       <c r="V185" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W185" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z185" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC185">
         <v>0</v>
@@ -9044,19 +9599,22 @@
       <c r="AF185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:32">
+      <c r="AG185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R186">
         <v>185</v>
       </c>
       <c r="S186" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T186">
         <v>56</v>
@@ -9065,13 +9623,13 @@
         <v>101</v>
       </c>
       <c r="V186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W186" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z186" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC186">
         <v>0</v>
@@ -9085,19 +9643,22 @@
       <c r="AF186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:32">
+      <c r="AG186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R187">
         <v>186</v>
       </c>
       <c r="S187" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T187">
         <v>57</v>
@@ -9106,13 +9667,13 @@
         <v>102</v>
       </c>
       <c r="V187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W187" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC187">
         <v>0</v>
@@ -9126,19 +9687,22 @@
       <c r="AF187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:32">
+      <c r="AG187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R188">
         <v>187</v>
       </c>
       <c r="S188" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T188">
         <v>57</v>
@@ -9147,13 +9711,13 @@
         <v>102</v>
       </c>
       <c r="V188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W188" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z188" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC188">
         <v>0</v>
@@ -9167,19 +9731,22 @@
       <c r="AF188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:32">
+      <c r="AG188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R189">
         <v>188</v>
       </c>
       <c r="S189" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T189">
         <v>57</v>
@@ -9188,13 +9755,13 @@
         <v>102</v>
       </c>
       <c r="V189" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W189" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC189">
         <v>0</v>
@@ -9208,19 +9775,22 @@
       <c r="AF189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:32">
+      <c r="AG189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R190">
         <v>189</v>
       </c>
       <c r="S190" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T190">
         <v>57</v>
@@ -9229,13 +9799,13 @@
         <v>102</v>
       </c>
       <c r="V190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W190" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC190">
         <v>0</v>
@@ -9249,19 +9819,22 @@
       <c r="AF190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:32">
+      <c r="AG190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R191">
         <v>190</v>
       </c>
       <c r="S191" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T191">
         <v>58</v>
@@ -9270,13 +9843,13 @@
         <v>103</v>
       </c>
       <c r="V191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W191" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z191" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC191">
         <v>0</v>
@@ -9290,19 +9863,22 @@
       <c r="AF191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:32">
+      <c r="AG191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B192" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R192">
         <v>191</v>
       </c>
       <c r="S192" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T192">
         <v>59</v>
@@ -9311,13 +9887,13 @@
         <v>104</v>
       </c>
       <c r="V192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W192" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z192" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC192">
         <v>0</v>
@@ -9331,19 +9907,22 @@
       <c r="AF192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:32">
+      <c r="AG192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B193" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R193">
         <v>192</v>
       </c>
       <c r="S193" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T193">
         <v>59</v>
@@ -9352,13 +9931,13 @@
         <v>104</v>
       </c>
       <c r="V193" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W193" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z193" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC193">
         <v>0</v>
@@ -9372,19 +9951,22 @@
       <c r="AF193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:32">
+      <c r="AG193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B194" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R194">
         <v>193</v>
       </c>
       <c r="S194" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T194">
         <v>59</v>
@@ -9393,13 +9975,13 @@
         <v>104</v>
       </c>
       <c r="V194" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W194" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC194">
         <v>0</v>
@@ -9413,19 +9995,22 @@
       <c r="AF194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:32">
+      <c r="AG194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R195">
         <v>194</v>
       </c>
       <c r="S195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T195">
         <v>59</v>
@@ -9434,13 +10019,13 @@
         <v>104</v>
       </c>
       <c r="V195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W195" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z195" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC195">
         <v>0</v>
@@ -9454,19 +10039,22 @@
       <c r="AF195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:32">
+      <c r="AG195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R196">
         <v>195</v>
       </c>
       <c r="S196" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T196">
         <v>59</v>
@@ -9475,13 +10063,13 @@
         <v>104</v>
       </c>
       <c r="V196" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W196" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z196" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC196">
         <v>0</v>
@@ -9495,19 +10083,22 @@
       <c r="AF196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:32">
+      <c r="AG196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R197">
         <v>196</v>
       </c>
       <c r="S197" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T197">
         <v>60</v>
@@ -9516,13 +10107,13 @@
         <v>105</v>
       </c>
       <c r="V197" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W197" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z197" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC197">
         <v>0</v>
@@ -9536,19 +10127,22 @@
       <c r="AF197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:32">
+      <c r="AG197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R198">
         <v>197</v>
       </c>
       <c r="S198" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T198">
         <v>61</v>
@@ -9557,13 +10151,13 @@
         <v>106</v>
       </c>
       <c r="V198" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W198" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z198" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC198">
         <v>0</v>
@@ -9577,19 +10171,22 @@
       <c r="AF198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:32">
+      <c r="AG198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R199">
         <v>198</v>
       </c>
       <c r="S199" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T199">
         <v>61</v>
@@ -9598,13 +10195,13 @@
         <v>106</v>
       </c>
       <c r="V199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W199" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z199" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC199">
         <v>0</v>
@@ -9618,19 +10215,22 @@
       <c r="AF199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:32">
+      <c r="AG199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R200">
         <v>199</v>
       </c>
       <c r="S200" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T200">
         <v>62</v>
@@ -9639,13 +10239,13 @@
         <v>107</v>
       </c>
       <c r="V200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W200" s="2">
         <v>45045.17372685186</v>
       </c>
       <c r="Z200" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC200">
         <v>0</v>
@@ -9659,19 +10259,22 @@
       <c r="AF200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:32">
+      <c r="AG200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B201" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R201">
         <v>200</v>
       </c>
       <c r="S201" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T201">
         <v>63</v>
@@ -9680,13 +10283,13 @@
         <v>109</v>
       </c>
       <c r="V201" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W201" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="Z201" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC201">
         <v>0</v>
@@ -9700,19 +10303,22 @@
       <c r="AF201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:32">
+      <c r="AG201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33">
       <c r="A202" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R202">
         <v>201</v>
       </c>
       <c r="S202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T202">
         <v>64</v>
@@ -9721,13 +10327,13 @@
         <v>110</v>
       </c>
       <c r="V202" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W202" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z202" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC202">
         <v>0</v>
@@ -9741,19 +10347,22 @@
       <c r="AF202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:32">
+      <c r="AG202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B203" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R203">
         <v>202</v>
       </c>
       <c r="S203" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T203">
         <v>64</v>
@@ -9762,13 +10371,13 @@
         <v>110</v>
       </c>
       <c r="V203" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W203" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z203" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC203">
         <v>0</v>
@@ -9782,19 +10391,22 @@
       <c r="AF203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:32">
+      <c r="AG203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33">
       <c r="A204" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R204">
         <v>203</v>
       </c>
       <c r="S204" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T204">
         <v>65</v>
@@ -9803,13 +10415,13 @@
         <v>111</v>
       </c>
       <c r="V204" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W204" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z204" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC204">
         <v>0</v>
@@ -9823,19 +10435,22 @@
       <c r="AF204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:32">
+      <c r="AG204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33">
       <c r="A205" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B205" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R205">
         <v>204</v>
       </c>
       <c r="S205" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T205">
         <v>66</v>
@@ -9844,13 +10459,13 @@
         <v>113</v>
       </c>
       <c r="V205" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W205" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z205" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC205">
         <v>0</v>
@@ -9864,19 +10479,22 @@
       <c r="AF205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:32">
+      <c r="AG205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33">
       <c r="A206" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R206">
         <v>205</v>
       </c>
       <c r="S206" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T206">
         <v>67</v>
@@ -9885,13 +10503,13 @@
         <v>114</v>
       </c>
       <c r="V206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W206" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="Z206" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC206">
         <v>0</v>
@@ -9905,19 +10523,22 @@
       <c r="AF206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:32">
+      <c r="AG206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B207" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R207">
         <v>206</v>
       </c>
       <c r="S207" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T207">
         <v>68</v>
@@ -9926,13 +10547,13 @@
         <v>115</v>
       </c>
       <c r="V207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W207" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z207" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC207">
         <v>0</v>
@@ -9946,19 +10567,22 @@
       <c r="AF207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:32">
+      <c r="AG207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B208" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R208">
         <v>207</v>
       </c>
       <c r="S208" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T208">
         <v>69</v>
@@ -9967,13 +10591,13 @@
         <v>117</v>
       </c>
       <c r="V208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W208" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="Z208" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC208">
         <v>0</v>
@@ -9987,19 +10611,22 @@
       <c r="AF208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:32">
+      <c r="AG208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33">
       <c r="A209" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B209" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R209">
         <v>208</v>
       </c>
       <c r="S209" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T209">
         <v>70</v>
@@ -10008,13 +10635,13 @@
         <v>118</v>
       </c>
       <c r="V209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W209" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="Z209" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC209">
         <v>0</v>
@@ -10028,19 +10655,22 @@
       <c r="AF209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:32">
+      <c r="AG209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33">
       <c r="A210" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R210">
         <v>209</v>
       </c>
       <c r="S210" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T210">
         <v>71</v>
@@ -10049,13 +10679,13 @@
         <v>119</v>
       </c>
       <c r="V210" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W210" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z210" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC210">
         <v>0</v>
@@ -10069,19 +10699,22 @@
       <c r="AF210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:32">
+      <c r="AG210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R211">
         <v>210</v>
       </c>
       <c r="S211" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T211">
         <v>71</v>
@@ -10090,13 +10723,13 @@
         <v>119</v>
       </c>
       <c r="V211" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W211" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z211" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC211">
         <v>0</v>
@@ -10110,19 +10743,22 @@
       <c r="AF211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:32">
+      <c r="AG211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R212">
         <v>211</v>
       </c>
       <c r="S212" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T212">
         <v>71</v>
@@ -10131,13 +10767,13 @@
         <v>119</v>
       </c>
       <c r="V212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W212" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z212" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC212">
         <v>0</v>
@@ -10151,19 +10787,22 @@
       <c r="AF212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:32">
+      <c r="AG212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33">
       <c r="A213" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R213">
         <v>212</v>
       </c>
       <c r="S213" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T213">
         <v>71</v>
@@ -10172,13 +10811,13 @@
         <v>119</v>
       </c>
       <c r="V213" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z213" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC213">
         <v>0</v>
@@ -10192,19 +10831,22 @@
       <c r="AF213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:32">
+      <c r="AG213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33">
       <c r="A214" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R214">
         <v>213</v>
       </c>
       <c r="S214" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T214">
         <v>71</v>
@@ -10213,13 +10855,13 @@
         <v>119</v>
       </c>
       <c r="V214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W214" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z214" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC214">
         <v>0</v>
@@ -10233,19 +10875,22 @@
       <c r="AF214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:32">
+      <c r="AG214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33">
       <c r="A215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R215">
         <v>214</v>
       </c>
       <c r="S215" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T215">
         <v>71</v>
@@ -10254,13 +10899,13 @@
         <v>119</v>
       </c>
       <c r="V215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W215" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z215" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC215">
         <v>0</v>
@@ -10274,19 +10919,22 @@
       <c r="AF215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:32">
+      <c r="AG215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33">
       <c r="A216" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B216" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R216">
         <v>215</v>
       </c>
       <c r="S216" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T216">
         <v>71</v>
@@ -10295,13 +10943,13 @@
         <v>119</v>
       </c>
       <c r="V216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W216" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z216" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC216">
         <v>0</v>
@@ -10315,19 +10963,22 @@
       <c r="AF216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:32">
+      <c r="AG216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33">
       <c r="A217" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R217">
         <v>216</v>
       </c>
       <c r="S217" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T217">
         <v>71</v>
@@ -10336,13 +10987,13 @@
         <v>119</v>
       </c>
       <c r="V217" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W217" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC217">
         <v>0</v>
@@ -10356,19 +11007,22 @@
       <c r="AF217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:32">
+      <c r="AG217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33">
       <c r="A218" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B218" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R218">
         <v>217</v>
       </c>
       <c r="S218" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T218">
         <v>71</v>
@@ -10377,13 +11031,13 @@
         <v>119</v>
       </c>
       <c r="V218" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W218" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z218" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC218">
         <v>0</v>
@@ -10395,6 +11049,9 @@
         <v>0</v>
       </c>
       <c r="AF218">
+        <v>0</v>
+      </c>
+      <c r="AG218">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="322">
   <si>
     <t>p21_can</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>CORREO</t>
@@ -1400,13 +1403,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG218"/>
+  <dimension ref="A1:AH218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,19 +1509,22 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1527,13 +1533,13 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="Z2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1550,19 +1556,22 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1571,13 +1580,13 @@
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1594,19 +1603,22 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1615,13 +1627,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1638,19 +1650,22 @@
       <c r="AG4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -1659,13 +1674,13 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1682,19 +1697,22 @@
       <c r="AG5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1703,13 +1721,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1726,19 +1744,22 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -1747,13 +1768,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1770,19 +1791,22 @@
       <c r="AG7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -1791,13 +1815,13 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1814,19 +1838,22 @@
       <c r="AG8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1835,13 +1862,13 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1858,19 +1885,22 @@
       <c r="AG9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1879,13 +1909,13 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1902,19 +1932,22 @@
       <c r="AG10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1923,13 +1956,13 @@
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1946,19 +1979,22 @@
       <c r="AG11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1967,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="V12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1990,19 +2026,22 @@
       <c r="AG12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -2011,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="V13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2034,19 +2073,22 @@
       <c r="AG13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -2055,13 +2097,13 @@
         <v>10</v>
       </c>
       <c r="V14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W14" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2078,19 +2120,22 @@
       <c r="AG14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -2099,13 +2144,13 @@
         <v>12</v>
       </c>
       <c r="V15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2122,19 +2167,22 @@
       <c r="AG15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T16">
         <v>7</v>
@@ -2143,13 +2191,13 @@
         <v>13</v>
       </c>
       <c r="V16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W16" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2166,19 +2214,22 @@
       <c r="AG16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T17">
         <v>7</v>
@@ -2187,13 +2238,13 @@
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2210,19 +2261,22 @@
       <c r="AG17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T18">
         <v>8</v>
@@ -2231,13 +2285,13 @@
         <v>14</v>
       </c>
       <c r="V18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W18" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2254,19 +2308,22 @@
       <c r="AG18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T19">
         <v>9</v>
@@ -2275,13 +2332,13 @@
         <v>15</v>
       </c>
       <c r="V19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W19" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2298,19 +2355,22 @@
       <c r="AG19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T20">
         <v>10</v>
@@ -2319,13 +2379,13 @@
         <v>16</v>
       </c>
       <c r="V20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W20" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2342,19 +2402,22 @@
       <c r="AG20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2363,13 +2426,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2386,19 +2449,22 @@
       <c r="AG21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2407,13 +2473,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2430,19 +2496,22 @@
       <c r="AG22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -2451,13 +2520,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2474,19 +2543,22 @@
       <c r="AG23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -2495,13 +2567,13 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2518,19 +2590,22 @@
       <c r="AG24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T25">
         <v>11</v>
@@ -2539,13 +2614,13 @@
         <v>17</v>
       </c>
       <c r="V25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2562,19 +2637,22 @@
       <c r="AG25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T26">
         <v>11</v>
@@ -2583,13 +2661,13 @@
         <v>17</v>
       </c>
       <c r="V26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2606,19 +2684,22 @@
       <c r="AG26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T27">
         <v>11</v>
@@ -2627,13 +2708,13 @@
         <v>17</v>
       </c>
       <c r="V27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -2650,19 +2731,22 @@
       <c r="AG27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T28">
         <v>11</v>
@@ -2671,13 +2755,13 @@
         <v>17</v>
       </c>
       <c r="V28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -2694,19 +2778,22 @@
       <c r="AG28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T29">
         <v>11</v>
@@ -2715,13 +2802,13 @@
         <v>17</v>
       </c>
       <c r="V29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -2738,19 +2825,22 @@
       <c r="AG29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T30">
         <v>11</v>
@@ -2759,13 +2849,13 @@
         <v>17</v>
       </c>
       <c r="V30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -2782,19 +2872,22 @@
       <c r="AG30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T31">
         <v>12</v>
@@ -2803,13 +2896,13 @@
         <v>18</v>
       </c>
       <c r="V31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W31" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -2826,19 +2919,22 @@
       <c r="AG31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AH31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T32">
         <v>13</v>
@@ -2847,13 +2943,13 @@
         <v>20</v>
       </c>
       <c r="V32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W32" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -2870,19 +2966,22 @@
       <c r="AG32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T33">
         <v>13</v>
@@ -2891,13 +2990,13 @@
         <v>20</v>
       </c>
       <c r="V33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W33" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -2914,19 +3013,22 @@
       <c r="AG33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AH33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T34">
         <v>14</v>
@@ -2935,13 +3037,13 @@
         <v>21</v>
       </c>
       <c r="V34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -2958,19 +3060,22 @@
       <c r="AG34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T35">
         <v>14</v>
@@ -2979,13 +3084,13 @@
         <v>21</v>
       </c>
       <c r="V35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W35" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3002,19 +3107,22 @@
       <c r="AG35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:33">
+      <c r="AH35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T36">
         <v>15</v>
@@ -3023,13 +3131,13 @@
         <v>22</v>
       </c>
       <c r="V36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3046,19 +3154,22 @@
       <c r="AG36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T37">
         <v>15</v>
@@ -3067,13 +3178,13 @@
         <v>22</v>
       </c>
       <c r="V37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W37" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -3090,19 +3201,22 @@
       <c r="AG37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T38">
         <v>16</v>
@@ -3111,13 +3225,13 @@
         <v>25</v>
       </c>
       <c r="V38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -3134,19 +3248,22 @@
       <c r="AG38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T39">
         <v>16</v>
@@ -3155,13 +3272,13 @@
         <v>25</v>
       </c>
       <c r="V39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W39" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -3178,19 +3295,22 @@
       <c r="AG39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AH39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T40">
         <v>16</v>
@@ -3199,13 +3319,13 @@
         <v>25</v>
       </c>
       <c r="V40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W40" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -3222,19 +3342,22 @@
       <c r="AG40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AH40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T41">
         <v>17</v>
@@ -3243,13 +3366,13 @@
         <v>26</v>
       </c>
       <c r="V41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W41" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -3266,19 +3389,22 @@
       <c r="AG41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AH41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T42">
         <v>17</v>
@@ -3287,13 +3413,13 @@
         <v>26</v>
       </c>
       <c r="V42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W42" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -3310,19 +3436,22 @@
       <c r="AG42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AH42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T43">
         <v>17</v>
@@ -3331,13 +3460,13 @@
         <v>26</v>
       </c>
       <c r="V43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W43" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -3354,19 +3483,22 @@
       <c r="AG43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AH43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T44">
         <v>17</v>
@@ -3375,13 +3507,13 @@
         <v>26</v>
       </c>
       <c r="V44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W44" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -3398,19 +3530,22 @@
       <c r="AG44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AH44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T45">
         <v>17</v>
@@ -3419,13 +3554,13 @@
         <v>26</v>
       </c>
       <c r="V45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W45" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -3442,19 +3577,22 @@
       <c r="AG45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AH45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T46">
         <v>17</v>
@@ -3463,13 +3601,13 @@
         <v>26</v>
       </c>
       <c r="V46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W46" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -3486,19 +3624,22 @@
       <c r="AG46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AH46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T47">
         <v>17</v>
@@ -3507,13 +3648,13 @@
         <v>26</v>
       </c>
       <c r="V47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W47" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -3530,19 +3671,22 @@
       <c r="AG47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AH47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T48">
         <v>17</v>
@@ -3551,13 +3695,13 @@
         <v>26</v>
       </c>
       <c r="V48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -3574,19 +3718,22 @@
       <c r="AG48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AH48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T49">
         <v>18</v>
@@ -3595,13 +3742,13 @@
         <v>27</v>
       </c>
       <c r="V49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -3618,19 +3765,22 @@
       <c r="AG49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="AH49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T50">
         <v>19</v>
@@ -3639,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="V50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z50" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -3662,19 +3812,22 @@
       <c r="AG50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="AH50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T51">
         <v>19</v>
@@ -3683,13 +3836,13 @@
         <v>30</v>
       </c>
       <c r="V51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -3706,19 +3859,22 @@
       <c r="AG51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AH51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T52">
         <v>19</v>
@@ -3727,13 +3883,13 @@
         <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -3750,19 +3906,22 @@
       <c r="AG52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AH52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T53">
         <v>19</v>
@@ -3771,13 +3930,13 @@
         <v>30</v>
       </c>
       <c r="V53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W53" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -3794,19 +3953,22 @@
       <c r="AG53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="AH53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T54">
         <v>19</v>
@@ -3815,13 +3977,13 @@
         <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W54" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -3838,19 +4000,22 @@
       <c r="AG54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AH54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T55">
         <v>20</v>
@@ -3859,13 +4024,13 @@
         <v>33</v>
       </c>
       <c r="V55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W55" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -3882,19 +4047,22 @@
       <c r="AG55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="AH55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T56">
         <v>21</v>
@@ -3903,13 +4071,13 @@
         <v>34</v>
       </c>
       <c r="V56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W56" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -3926,19 +4094,22 @@
       <c r="AG56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:33">
+      <c r="AH56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T57">
         <v>21</v>
@@ -3947,13 +4118,13 @@
         <v>34</v>
       </c>
       <c r="V57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W57" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -3970,19 +4141,22 @@
       <c r="AG57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T58">
         <v>21</v>
@@ -3991,13 +4165,13 @@
         <v>34</v>
       </c>
       <c r="V58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W58" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -4014,19 +4188,22 @@
       <c r="AG58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AH58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T59">
         <v>21</v>
@@ -4035,13 +4212,13 @@
         <v>34</v>
       </c>
       <c r="V59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W59" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -4058,19 +4235,22 @@
       <c r="AG59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AH59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T60">
         <v>21</v>
@@ -4079,13 +4259,13 @@
         <v>34</v>
       </c>
       <c r="V60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W60" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -4102,19 +4282,22 @@
       <c r="AG60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T61">
         <v>21</v>
@@ -4123,13 +4306,13 @@
         <v>34</v>
       </c>
       <c r="V61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W61" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -4146,19 +4329,22 @@
       <c r="AG61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AH61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T62">
         <v>22</v>
@@ -4167,13 +4353,13 @@
         <v>37</v>
       </c>
       <c r="V62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W62" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -4190,19 +4376,22 @@
       <c r="AG62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:33">
+      <c r="AH62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T63">
         <v>22</v>
@@ -4211,13 +4400,13 @@
         <v>37</v>
       </c>
       <c r="V63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W63" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -4234,19 +4423,22 @@
       <c r="AG63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AH63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T64">
         <v>22</v>
@@ -4255,13 +4447,13 @@
         <v>37</v>
       </c>
       <c r="V64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W64" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -4278,19 +4470,22 @@
       <c r="AG64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T65">
         <v>22</v>
@@ -4299,13 +4494,13 @@
         <v>37</v>
       </c>
       <c r="V65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W65" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z65" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -4322,19 +4517,22 @@
       <c r="AG65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="AH65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T66">
         <v>22</v>
@@ -4343,13 +4541,13 @@
         <v>37</v>
       </c>
       <c r="V66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W66" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z66" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -4366,19 +4564,22 @@
       <c r="AG66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="AH66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T67">
         <v>23</v>
@@ -4387,13 +4588,13 @@
         <v>38</v>
       </c>
       <c r="V67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W67" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -4410,19 +4611,22 @@
       <c r="AG67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:33">
+      <c r="AH67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -4431,13 +4635,13 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W68" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -4454,19 +4658,22 @@
       <c r="AG68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:33">
+      <c r="AH68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T69">
         <v>24</v>
@@ -4475,13 +4682,13 @@
         <v>51</v>
       </c>
       <c r="V69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W69" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -4498,19 +4705,22 @@
       <c r="AG69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:33">
+      <c r="AH69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T70">
         <v>24</v>
@@ -4519,13 +4729,13 @@
         <v>51</v>
       </c>
       <c r="V70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W70" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -4542,19 +4752,22 @@
       <c r="AG70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:33">
+      <c r="AH70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T71">
         <v>24</v>
@@ -4563,13 +4776,13 @@
         <v>51</v>
       </c>
       <c r="V71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W71" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -4586,19 +4799,22 @@
       <c r="AG71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:33">
+      <c r="AH71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T72">
         <v>24</v>
@@ -4607,13 +4823,13 @@
         <v>51</v>
       </c>
       <c r="V72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W72" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -4630,19 +4846,22 @@
       <c r="AG72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:33">
+      <c r="AH72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T73">
         <v>24</v>
@@ -4651,13 +4870,13 @@
         <v>51</v>
       </c>
       <c r="V73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W73" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -4674,19 +4893,22 @@
       <c r="AG73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:33">
+      <c r="AH73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T74">
         <v>24</v>
@@ -4695,13 +4917,13 @@
         <v>51</v>
       </c>
       <c r="V74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W74" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -4718,19 +4940,22 @@
       <c r="AG74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:33">
+      <c r="AH74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T75">
         <v>25</v>
@@ -4739,13 +4964,13 @@
         <v>52</v>
       </c>
       <c r="V75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W75" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -4762,19 +4987,22 @@
       <c r="AG75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:33">
+      <c r="AH75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T76">
         <v>26</v>
@@ -4783,13 +5011,13 @@
         <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W76" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -4806,19 +5034,22 @@
       <c r="AG76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:33">
+      <c r="AH76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T77">
         <v>26</v>
@@ -4827,13 +5058,13 @@
         <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W77" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -4850,19 +5081,22 @@
       <c r="AG77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:33">
+      <c r="AH77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T78">
         <v>26</v>
@@ -4871,13 +5105,13 @@
         <v>55</v>
       </c>
       <c r="V78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W78" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -4894,19 +5128,22 @@
       <c r="AG78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AH78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T79">
         <v>26</v>
@@ -4915,13 +5152,13 @@
         <v>55</v>
       </c>
       <c r="V79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W79" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -4938,19 +5175,22 @@
       <c r="AG79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:33">
+      <c r="AH79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T80">
         <v>26</v>
@@ -4959,13 +5199,13 @@
         <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W80" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -4982,19 +5222,22 @@
       <c r="AG80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:33">
+      <c r="AH80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T81">
         <v>27</v>
@@ -5003,13 +5246,13 @@
         <v>56</v>
       </c>
       <c r="V81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W81" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -5026,19 +5269,22 @@
       <c r="AG81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:33">
+      <c r="AH81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T82">
         <v>28</v>
@@ -5047,13 +5293,13 @@
         <v>57</v>
       </c>
       <c r="V82" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W82" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -5070,19 +5316,22 @@
       <c r="AG82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:33">
+      <c r="AH82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T83">
         <v>28</v>
@@ -5091,13 +5340,13 @@
         <v>57</v>
       </c>
       <c r="V83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W83" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -5114,19 +5363,22 @@
       <c r="AG83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:33">
+      <c r="AH83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T84">
         <v>28</v>
@@ -5135,13 +5387,13 @@
         <v>57</v>
       </c>
       <c r="V84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W84" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z84" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -5158,19 +5410,22 @@
       <c r="AG84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:33">
+      <c r="AH84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T85">
         <v>28</v>
@@ -5179,13 +5434,13 @@
         <v>57</v>
       </c>
       <c r="V85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W85" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -5202,19 +5457,22 @@
       <c r="AG85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:33">
+      <c r="AH85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T86">
         <v>29</v>
@@ -5223,13 +5481,13 @@
         <v>58</v>
       </c>
       <c r="V86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W86" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -5246,19 +5504,22 @@
       <c r="AG86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:33">
+      <c r="AH86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T87">
         <v>29</v>
@@ -5267,13 +5528,13 @@
         <v>58</v>
       </c>
       <c r="V87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W87" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -5290,19 +5551,22 @@
       <c r="AG87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:33">
+      <c r="AH87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T88">
         <v>30</v>
@@ -5311,13 +5575,13 @@
         <v>59</v>
       </c>
       <c r="V88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W88" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -5334,19 +5598,22 @@
       <c r="AG88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:33">
+      <c r="AH88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T89">
         <v>30</v>
@@ -5355,13 +5622,13 @@
         <v>59</v>
       </c>
       <c r="V89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W89" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z89" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -5378,19 +5645,22 @@
       <c r="AG89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:33">
+      <c r="AH89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T90">
         <v>30</v>
@@ -5399,13 +5669,13 @@
         <v>59</v>
       </c>
       <c r="V90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W90" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -5422,19 +5692,22 @@
       <c r="AG90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:33">
+      <c r="AH90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T91">
         <v>30</v>
@@ -5443,13 +5716,13 @@
         <v>59</v>
       </c>
       <c r="V91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W91" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -5466,19 +5739,22 @@
       <c r="AG91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:33">
+      <c r="AH91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T92">
         <v>30</v>
@@ -5487,13 +5763,13 @@
         <v>59</v>
       </c>
       <c r="V92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W92" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -5510,19 +5786,22 @@
       <c r="AG92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:33">
+      <c r="AH92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T93">
         <v>30</v>
@@ -5531,13 +5810,13 @@
         <v>59</v>
       </c>
       <c r="V93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W93" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z93" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -5554,19 +5833,22 @@
       <c r="AG93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:33">
+      <c r="AH93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T94">
         <v>30</v>
@@ -5575,13 +5857,13 @@
         <v>59</v>
       </c>
       <c r="V94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W94" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z94" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -5598,19 +5880,22 @@
       <c r="AG94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:33">
+      <c r="AH94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T95">
         <v>30</v>
@@ -5619,13 +5904,13 @@
         <v>59</v>
       </c>
       <c r="V95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W95" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z95" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -5642,19 +5927,22 @@
       <c r="AG95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:33">
+      <c r="AH95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T96">
         <v>30</v>
@@ -5663,13 +5951,13 @@
         <v>59</v>
       </c>
       <c r="V96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W96" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -5686,19 +5974,22 @@
       <c r="AG96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:33">
+      <c r="AH96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T97">
         <v>31</v>
@@ -5707,13 +5998,13 @@
         <v>60</v>
       </c>
       <c r="V97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W97" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -5730,19 +6021,22 @@
       <c r="AG97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:33">
+      <c r="AH97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T98">
         <v>32</v>
@@ -5751,13 +6045,13 @@
         <v>61</v>
       </c>
       <c r="V98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W98" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z98" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -5774,19 +6068,22 @@
       <c r="AG98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:33">
+      <c r="AH98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T99">
         <v>32</v>
@@ -5795,13 +6092,13 @@
         <v>61</v>
       </c>
       <c r="V99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W99" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z99" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -5818,19 +6115,22 @@
       <c r="AG99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:33">
+      <c r="AH99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T100">
         <v>32</v>
@@ -5839,13 +6139,13 @@
         <v>61</v>
       </c>
       <c r="V100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W100" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z100" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -5862,19 +6162,22 @@
       <c r="AG100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:33">
+      <c r="AH100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T101">
         <v>33</v>
@@ -5883,13 +6186,13 @@
         <v>63</v>
       </c>
       <c r="V101" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W101" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -5906,19 +6209,22 @@
       <c r="AG101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:33">
+      <c r="AH101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T102">
         <v>33</v>
@@ -5927,13 +6233,13 @@
         <v>63</v>
       </c>
       <c r="V102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W102" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z102" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -5950,19 +6256,22 @@
       <c r="AG102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:33">
+      <c r="AH102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T103">
         <v>33</v>
@@ -5971,13 +6280,13 @@
         <v>63</v>
       </c>
       <c r="V103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W103" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -5994,19 +6303,22 @@
       <c r="AG103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:33">
+      <c r="AH103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T104">
         <v>33</v>
@@ -6015,13 +6327,13 @@
         <v>63</v>
       </c>
       <c r="V104" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W104" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -6038,19 +6350,22 @@
       <c r="AG104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:33">
+      <c r="AH104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T105">
         <v>33</v>
@@ -6059,13 +6374,13 @@
         <v>63</v>
       </c>
       <c r="V105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W105" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -6082,19 +6397,22 @@
       <c r="AG105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:33">
+      <c r="AH105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T106">
         <v>33</v>
@@ -6103,13 +6421,13 @@
         <v>63</v>
       </c>
       <c r="V106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W106" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -6126,19 +6444,22 @@
       <c r="AG106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:33">
+      <c r="AH106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T107">
         <v>33</v>
@@ -6147,13 +6468,13 @@
         <v>63</v>
       </c>
       <c r="V107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W107" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -6170,19 +6491,22 @@
       <c r="AG107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:33">
+      <c r="AH107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T108">
         <v>34</v>
@@ -6191,13 +6515,13 @@
         <v>64</v>
       </c>
       <c r="V108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W108" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -6214,19 +6538,22 @@
       <c r="AG108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:33">
+      <c r="AH108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T109">
         <v>35</v>
@@ -6235,13 +6562,13 @@
         <v>75</v>
       </c>
       <c r="V109" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W109" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Z109" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -6258,19 +6585,22 @@
       <c r="AG109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:33">
+      <c r="AH109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T110">
         <v>36</v>
@@ -6279,13 +6609,13 @@
         <v>77</v>
       </c>
       <c r="V110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W110" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z110" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -6302,19 +6632,22 @@
       <c r="AG110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:33">
+      <c r="AH110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T111">
         <v>36</v>
@@ -6323,13 +6656,13 @@
         <v>77</v>
       </c>
       <c r="V111" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W111" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z111" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -6346,19 +6679,22 @@
       <c r="AG111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:33">
+      <c r="AH111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T112">
         <v>36</v>
@@ -6367,13 +6703,13 @@
         <v>77</v>
       </c>
       <c r="V112" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W112" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z112" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -6390,19 +6726,22 @@
       <c r="AG112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:33">
+      <c r="AH112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T113">
         <v>36</v>
@@ -6411,13 +6750,13 @@
         <v>77</v>
       </c>
       <c r="V113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W113" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -6434,19 +6773,22 @@
       <c r="AG113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:33">
+      <c r="AH113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T114">
         <v>36</v>
@@ -6455,13 +6797,13 @@
         <v>77</v>
       </c>
       <c r="V114" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W114" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -6478,19 +6820,22 @@
       <c r="AG114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:33">
+      <c r="AH114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T115">
         <v>36</v>
@@ -6499,13 +6844,13 @@
         <v>77</v>
       </c>
       <c r="V115" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W115" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z115" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -6522,19 +6867,22 @@
       <c r="AG115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:33">
+      <c r="AH115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T116">
         <v>36</v>
@@ -6543,13 +6891,13 @@
         <v>77</v>
       </c>
       <c r="V116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W116" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -6566,19 +6914,22 @@
       <c r="AG116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:33">
+      <c r="AH116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T117">
         <v>36</v>
@@ -6587,13 +6938,13 @@
         <v>77</v>
       </c>
       <c r="V117" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W117" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -6610,19 +6961,22 @@
       <c r="AG117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:33">
+      <c r="AH117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T118">
         <v>36</v>
@@ -6631,13 +6985,13 @@
         <v>77</v>
       </c>
       <c r="V118" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W118" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z118" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -6654,19 +7008,22 @@
       <c r="AG118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:33">
+      <c r="AH118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T119">
         <v>37</v>
@@ -6675,13 +7032,13 @@
         <v>78</v>
       </c>
       <c r="V119" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W119" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -6698,19 +7055,22 @@
       <c r="AG119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:33">
+      <c r="AH119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T120">
         <v>38</v>
@@ -6719,13 +7079,13 @@
         <v>80</v>
       </c>
       <c r="V120" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W120" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z120" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -6742,19 +7102,22 @@
       <c r="AG120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:33">
+      <c r="AH120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T121">
         <v>39</v>
@@ -6763,13 +7126,13 @@
         <v>81</v>
       </c>
       <c r="V121" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W121" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z121" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -6786,19 +7149,22 @@
       <c r="AG121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:33">
+      <c r="AH121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T122">
         <v>39</v>
@@ -6807,13 +7173,13 @@
         <v>81</v>
       </c>
       <c r="V122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W122" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z122" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -6830,19 +7196,22 @@
       <c r="AG122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:33">
+      <c r="AH122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T123">
         <v>39</v>
@@ -6851,13 +7220,13 @@
         <v>81</v>
       </c>
       <c r="V123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W123" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z123" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -6874,19 +7243,22 @@
       <c r="AG123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:33">
+      <c r="AH123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T124">
         <v>39</v>
@@ -6895,13 +7267,13 @@
         <v>81</v>
       </c>
       <c r="V124" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W124" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z124" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -6918,19 +7290,22 @@
       <c r="AG124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:33">
+      <c r="AH124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T125">
         <v>39</v>
@@ -6939,13 +7314,13 @@
         <v>81</v>
       </c>
       <c r="V125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W125" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -6962,19 +7337,22 @@
       <c r="AG125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:33">
+      <c r="AH125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T126">
         <v>39</v>
@@ -6983,13 +7361,13 @@
         <v>81</v>
       </c>
       <c r="V126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W126" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z126" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -7006,19 +7384,22 @@
       <c r="AG126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:33">
+      <c r="AH126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T127">
         <v>39</v>
@@ -7027,13 +7408,13 @@
         <v>81</v>
       </c>
       <c r="V127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W127" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z127" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -7050,19 +7431,22 @@
       <c r="AG127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:33">
+      <c r="AH127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T128">
         <v>39</v>
@@ -7071,13 +7455,13 @@
         <v>81</v>
       </c>
       <c r="V128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W128" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z128" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -7094,19 +7478,22 @@
       <c r="AG128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:33">
+      <c r="AH128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T129">
         <v>39</v>
@@ -7115,13 +7502,13 @@
         <v>81</v>
       </c>
       <c r="V129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W129" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z129" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -7138,19 +7525,22 @@
       <c r="AG129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:33">
+      <c r="AH129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T130">
         <v>39</v>
@@ -7159,13 +7549,13 @@
         <v>81</v>
       </c>
       <c r="V130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W130" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z130" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -7182,19 +7572,22 @@
       <c r="AG130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:33">
+      <c r="AH130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T131">
         <v>40</v>
@@ -7203,13 +7596,13 @@
         <v>82</v>
       </c>
       <c r="V131" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W131" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z131" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -7226,19 +7619,22 @@
       <c r="AG131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:33">
+      <c r="AH131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T132">
         <v>40</v>
@@ -7247,13 +7643,13 @@
         <v>82</v>
       </c>
       <c r="V132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W132" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z132" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -7270,19 +7666,22 @@
       <c r="AG132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:33">
+      <c r="AH132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T133">
         <v>40</v>
@@ -7291,13 +7690,13 @@
         <v>82</v>
       </c>
       <c r="V133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W133" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z133" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -7314,19 +7713,22 @@
       <c r="AG133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:33">
+      <c r="AH133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T134">
         <v>40</v>
@@ -7335,13 +7737,13 @@
         <v>82</v>
       </c>
       <c r="V134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W134" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -7358,19 +7760,22 @@
       <c r="AG134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:33">
+      <c r="AH134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T135">
         <v>41</v>
@@ -7379,13 +7784,13 @@
         <v>83</v>
       </c>
       <c r="V135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W135" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="Z135" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -7402,19 +7807,22 @@
       <c r="AG135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:33">
+      <c r="AH135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T136">
         <v>42</v>
@@ -7423,13 +7831,13 @@
         <v>84</v>
       </c>
       <c r="V136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W136" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z136" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -7446,19 +7854,22 @@
       <c r="AG136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:33">
+      <c r="AH136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34">
       <c r="A137" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T137">
         <v>42</v>
@@ -7467,13 +7878,13 @@
         <v>84</v>
       </c>
       <c r="V137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W137" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z137" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -7490,19 +7901,22 @@
       <c r="AG137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:33">
+      <c r="AH137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T138">
         <v>42</v>
@@ -7511,13 +7925,13 @@
         <v>84</v>
       </c>
       <c r="V138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W138" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -7534,19 +7948,22 @@
       <c r="AG138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:33">
+      <c r="AH138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T139">
         <v>42</v>
@@ -7555,13 +7972,13 @@
         <v>84</v>
       </c>
       <c r="V139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W139" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -7578,19 +7995,22 @@
       <c r="AG139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:33">
+      <c r="AH139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T140">
         <v>42</v>
@@ -7599,13 +8019,13 @@
         <v>84</v>
       </c>
       <c r="V140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W140" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z140" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -7622,19 +8042,22 @@
       <c r="AG140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:33">
+      <c r="AH140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T141">
         <v>42</v>
@@ -7643,13 +8066,13 @@
         <v>84</v>
       </c>
       <c r="V141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W141" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z141" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -7666,19 +8089,22 @@
       <c r="AG141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:33">
+      <c r="AH141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T142">
         <v>43</v>
@@ -7687,13 +8113,13 @@
         <v>86</v>
       </c>
       <c r="V142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W142" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="Z142" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -7710,19 +8136,22 @@
       <c r="AG142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:33">
+      <c r="AH142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T143">
         <v>44</v>
@@ -7731,13 +8160,13 @@
         <v>87</v>
       </c>
       <c r="V143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W143" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -7754,19 +8183,22 @@
       <c r="AG143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:33">
+      <c r="AH143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T144">
         <v>44</v>
@@ -7775,13 +8207,13 @@
         <v>87</v>
       </c>
       <c r="V144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W144" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z144" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -7798,19 +8230,22 @@
       <c r="AG144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:33">
+      <c r="AH144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T145">
         <v>44</v>
@@ -7819,13 +8254,13 @@
         <v>87</v>
       </c>
       <c r="V145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W145" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z145" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -7842,19 +8277,22 @@
       <c r="AG145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:33">
+      <c r="AH145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T146">
         <v>45</v>
@@ -7863,13 +8301,13 @@
         <v>88</v>
       </c>
       <c r="V146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W146" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z146" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -7886,19 +8324,22 @@
       <c r="AG146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:33">
+      <c r="AH146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T147">
         <v>45</v>
@@ -7907,13 +8348,13 @@
         <v>88</v>
       </c>
       <c r="V147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W147" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z147" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -7930,19 +8371,22 @@
       <c r="AG147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:33">
+      <c r="AH147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T148">
         <v>45</v>
@@ -7951,13 +8395,13 @@
         <v>88</v>
       </c>
       <c r="V148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W148" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -7974,19 +8418,22 @@
       <c r="AG148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:33">
+      <c r="AH148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T149">
         <v>45</v>
@@ -7995,13 +8442,13 @@
         <v>88</v>
       </c>
       <c r="V149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W149" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z149" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -8018,19 +8465,22 @@
       <c r="AG149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:33">
+      <c r="AH149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T150">
         <v>45</v>
@@ -8039,13 +8489,13 @@
         <v>88</v>
       </c>
       <c r="V150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W150" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z150" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -8062,19 +8512,22 @@
       <c r="AG150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:33">
+      <c r="AH150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T151">
         <v>46</v>
@@ -8083,13 +8536,13 @@
         <v>90</v>
       </c>
       <c r="V151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W151" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -8106,19 +8559,22 @@
       <c r="AG151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:33">
+      <c r="AH151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T152">
         <v>46</v>
@@ -8127,13 +8583,13 @@
         <v>90</v>
       </c>
       <c r="V152" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W152" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z152" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -8150,19 +8606,22 @@
       <c r="AG152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:33">
+      <c r="AH152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T153">
         <v>46</v>
@@ -8171,13 +8630,13 @@
         <v>90</v>
       </c>
       <c r="V153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W153" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z153" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -8194,19 +8653,22 @@
       <c r="AG153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:33">
+      <c r="AH153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B154" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T154">
         <v>46</v>
@@ -8215,13 +8677,13 @@
         <v>90</v>
       </c>
       <c r="V154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W154" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z154" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -8238,19 +8700,22 @@
       <c r="AG154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:33">
+      <c r="AH154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B155" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T155">
         <v>46</v>
@@ -8259,13 +8724,13 @@
         <v>90</v>
       </c>
       <c r="V155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W155" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z155" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -8282,19 +8747,22 @@
       <c r="AG155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:33">
+      <c r="AH155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34">
       <c r="A156" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B156" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T156">
         <v>47</v>
@@ -8303,13 +8771,13 @@
         <v>91</v>
       </c>
       <c r="V156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W156" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z156" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -8326,19 +8794,22 @@
       <c r="AG156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:33">
+      <c r="AH156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T157">
         <v>47</v>
@@ -8347,13 +8818,13 @@
         <v>91</v>
       </c>
       <c r="V157" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W157" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z157" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -8370,19 +8841,22 @@
       <c r="AG157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:33">
+      <c r="AH157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B158" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T158">
         <v>48</v>
@@ -8391,13 +8865,13 @@
         <v>92</v>
       </c>
       <c r="V158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W158" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z158" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -8414,19 +8888,22 @@
       <c r="AG158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:33">
+      <c r="AH158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T159">
         <v>49</v>
@@ -8435,13 +8912,13 @@
         <v>93</v>
       </c>
       <c r="V159" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W159" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -8458,19 +8935,22 @@
       <c r="AG159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:33">
+      <c r="AH159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:34">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T160">
         <v>49</v>
@@ -8479,13 +8959,13 @@
         <v>93</v>
       </c>
       <c r="V160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W160" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -8502,19 +8982,22 @@
       <c r="AG160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:33">
+      <c r="AH160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:34">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T161">
         <v>49</v>
@@ -8523,13 +9006,13 @@
         <v>93</v>
       </c>
       <c r="V161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W161" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -8546,19 +9029,22 @@
       <c r="AG161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:33">
+      <c r="AH161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:34">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T162">
         <v>49</v>
@@ -8567,13 +9053,13 @@
         <v>93</v>
       </c>
       <c r="V162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W162" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -8590,19 +9076,22 @@
       <c r="AG162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:33">
+      <c r="AH162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:34">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T163">
         <v>49</v>
@@ -8611,13 +9100,13 @@
         <v>93</v>
       </c>
       <c r="V163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W163" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -8634,19 +9123,22 @@
       <c r="AG163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:33">
+      <c r="AH163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:34">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R164">
         <v>163</v>
       </c>
       <c r="S164" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T164">
         <v>50</v>
@@ -8655,13 +9147,13 @@
         <v>94</v>
       </c>
       <c r="V164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W164" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z164" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC164">
         <v>0</v>
@@ -8678,19 +9170,22 @@
       <c r="AG164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:33">
+      <c r="AH164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:34">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R165">
         <v>164</v>
       </c>
       <c r="S165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T165">
         <v>50</v>
@@ -8699,13 +9194,13 @@
         <v>94</v>
       </c>
       <c r="V165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W165" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC165">
         <v>0</v>
@@ -8722,19 +9217,22 @@
       <c r="AG165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:33">
+      <c r="AH165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:34">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R166">
         <v>165</v>
       </c>
       <c r="S166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T166">
         <v>51</v>
@@ -8743,13 +9241,13 @@
         <v>95</v>
       </c>
       <c r="V166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W166" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC166">
         <v>0</v>
@@ -8766,19 +9264,22 @@
       <c r="AG166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:33">
+      <c r="AH166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:34">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R167">
         <v>166</v>
       </c>
       <c r="S167" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T167">
         <v>51</v>
@@ -8787,13 +9288,13 @@
         <v>95</v>
       </c>
       <c r="V167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W167" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z167" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC167">
         <v>0</v>
@@ -8810,19 +9311,22 @@
       <c r="AG167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:33">
+      <c r="AH167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:34">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R168">
         <v>167</v>
       </c>
       <c r="S168" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T168">
         <v>51</v>
@@ -8831,13 +9335,13 @@
         <v>95</v>
       </c>
       <c r="V168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W168" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z168" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC168">
         <v>0</v>
@@ -8854,19 +9358,22 @@
       <c r="AG168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:33">
+      <c r="AH168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:34">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B169" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R169">
         <v>168</v>
       </c>
       <c r="S169" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T169">
         <v>51</v>
@@ -8875,13 +9382,13 @@
         <v>95</v>
       </c>
       <c r="V169" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W169" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC169">
         <v>0</v>
@@ -8898,19 +9405,22 @@
       <c r="AG169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:33">
+      <c r="AH169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B170" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R170">
         <v>169</v>
       </c>
       <c r="S170" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T170">
         <v>51</v>
@@ -8919,13 +9429,13 @@
         <v>95</v>
       </c>
       <c r="V170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W170" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC170">
         <v>0</v>
@@ -8942,19 +9452,22 @@
       <c r="AG170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:33">
+      <c r="AH170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R171">
         <v>170</v>
       </c>
       <c r="S171" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T171">
         <v>51</v>
@@ -8963,13 +9476,13 @@
         <v>95</v>
       </c>
       <c r="V171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W171" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z171" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC171">
         <v>0</v>
@@ -8986,19 +9499,22 @@
       <c r="AG171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:33">
+      <c r="AH171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:34">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R172">
         <v>171</v>
       </c>
       <c r="S172" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T172">
         <v>51</v>
@@ -9007,13 +9523,13 @@
         <v>95</v>
       </c>
       <c r="V172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W172" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z172" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC172">
         <v>0</v>
@@ -9030,19 +9546,22 @@
       <c r="AG172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:33">
+      <c r="AH172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:34">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R173">
         <v>172</v>
       </c>
       <c r="S173" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T173">
         <v>52</v>
@@ -9051,13 +9570,13 @@
         <v>96</v>
       </c>
       <c r="V173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W173" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Z173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC173">
         <v>0</v>
@@ -9074,19 +9593,22 @@
       <c r="AG173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:33">
+      <c r="AH173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:34">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B174" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R174">
         <v>173</v>
       </c>
       <c r="S174" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T174">
         <v>53</v>
@@ -9095,13 +9617,13 @@
         <v>98</v>
       </c>
       <c r="V174" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W174" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC174">
         <v>0</v>
@@ -9118,19 +9640,22 @@
       <c r="AG174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:33">
+      <c r="AH174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:34">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R175">
         <v>174</v>
       </c>
       <c r="S175" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T175">
         <v>53</v>
@@ -9139,13 +9664,13 @@
         <v>98</v>
       </c>
       <c r="V175" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W175" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z175" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC175">
         <v>0</v>
@@ -9162,19 +9687,22 @@
       <c r="AG175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:33">
+      <c r="AH175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R176">
         <v>175</v>
       </c>
       <c r="S176" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T176">
         <v>54</v>
@@ -9183,13 +9711,13 @@
         <v>99</v>
       </c>
       <c r="V176" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W176" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z176" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC176">
         <v>0</v>
@@ -9206,19 +9734,22 @@
       <c r="AG176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:33">
+      <c r="AH176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:34">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R177">
         <v>176</v>
       </c>
       <c r="S177" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T177">
         <v>55</v>
@@ -9227,13 +9758,13 @@
         <v>100</v>
       </c>
       <c r="V177" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W177" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC177">
         <v>0</v>
@@ -9250,19 +9781,22 @@
       <c r="AG177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:33">
+      <c r="AH177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R178">
         <v>177</v>
       </c>
       <c r="S178" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T178">
         <v>55</v>
@@ -9271,13 +9805,13 @@
         <v>100</v>
       </c>
       <c r="V178" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W178" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z178" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC178">
         <v>0</v>
@@ -9294,19 +9828,22 @@
       <c r="AG178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:33">
+      <c r="AH178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:34">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R179">
         <v>178</v>
       </c>
       <c r="S179" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T179">
         <v>55</v>
@@ -9315,13 +9852,13 @@
         <v>100</v>
       </c>
       <c r="V179" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W179" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z179" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC179">
         <v>0</v>
@@ -9338,19 +9875,22 @@
       <c r="AG179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:33">
+      <c r="AH179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:34">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R180">
         <v>179</v>
       </c>
       <c r="S180" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T180">
         <v>55</v>
@@ -9359,13 +9899,13 @@
         <v>100</v>
       </c>
       <c r="V180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W180" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z180" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC180">
         <v>0</v>
@@ -9382,19 +9922,22 @@
       <c r="AG180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:33">
+      <c r="AH180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R181">
         <v>180</v>
       </c>
       <c r="S181" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T181">
         <v>55</v>
@@ -9403,13 +9946,13 @@
         <v>100</v>
       </c>
       <c r="V181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W181" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z181" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC181">
         <v>0</v>
@@ -9426,19 +9969,22 @@
       <c r="AG181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:33">
+      <c r="AH181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B182" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R182">
         <v>181</v>
       </c>
       <c r="S182" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T182">
         <v>56</v>
@@ -9447,13 +9993,13 @@
         <v>101</v>
       </c>
       <c r="V182" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W182" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z182" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC182">
         <v>0</v>
@@ -9470,19 +10016,22 @@
       <c r="AG182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:33">
+      <c r="AH182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B183" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R183">
         <v>182</v>
       </c>
       <c r="S183" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T183">
         <v>56</v>
@@ -9491,13 +10040,13 @@
         <v>101</v>
       </c>
       <c r="V183" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W183" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z183" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC183">
         <v>0</v>
@@ -9514,19 +10063,22 @@
       <c r="AG183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:33">
+      <c r="AH183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:34">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R184">
         <v>183</v>
       </c>
       <c r="S184" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T184">
         <v>56</v>
@@ -9535,13 +10087,13 @@
         <v>101</v>
       </c>
       <c r="V184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W184" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC184">
         <v>0</v>
@@ -9558,19 +10110,22 @@
       <c r="AG184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:33">
+      <c r="AH184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R185">
         <v>184</v>
       </c>
       <c r="S185" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T185">
         <v>56</v>
@@ -9579,13 +10134,13 @@
         <v>101</v>
       </c>
       <c r="V185" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W185" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z185" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC185">
         <v>0</v>
@@ -9602,19 +10157,22 @@
       <c r="AG185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:33">
+      <c r="AH185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34">
       <c r="A186" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B186" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R186">
         <v>185</v>
       </c>
       <c r="S186" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T186">
         <v>56</v>
@@ -9623,13 +10181,13 @@
         <v>101</v>
       </c>
       <c r="V186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W186" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC186">
         <v>0</v>
@@ -9646,19 +10204,22 @@
       <c r="AG186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:33">
+      <c r="AH186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B187" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R187">
         <v>186</v>
       </c>
       <c r="S187" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T187">
         <v>57</v>
@@ -9667,13 +10228,13 @@
         <v>102</v>
       </c>
       <c r="V187" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W187" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z187" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC187">
         <v>0</v>
@@ -9690,19 +10251,22 @@
       <c r="AG187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:33">
+      <c r="AH187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B188" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R188">
         <v>187</v>
       </c>
       <c r="S188" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T188">
         <v>57</v>
@@ -9711,13 +10275,13 @@
         <v>102</v>
       </c>
       <c r="V188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W188" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z188" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC188">
         <v>0</v>
@@ -9734,19 +10298,22 @@
       <c r="AG188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:33">
+      <c r="AH188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R189">
         <v>188</v>
       </c>
       <c r="S189" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T189">
         <v>57</v>
@@ -9755,13 +10322,13 @@
         <v>102</v>
       </c>
       <c r="V189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W189" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC189">
         <v>0</v>
@@ -9778,19 +10345,22 @@
       <c r="AG189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:33">
+      <c r="AH189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B190" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R190">
         <v>189</v>
       </c>
       <c r="S190" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T190">
         <v>57</v>
@@ -9799,13 +10369,13 @@
         <v>102</v>
       </c>
       <c r="V190" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W190" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z190" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC190">
         <v>0</v>
@@ -9822,19 +10392,22 @@
       <c r="AG190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:33">
+      <c r="AH190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R191">
         <v>190</v>
       </c>
       <c r="S191" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T191">
         <v>58</v>
@@ -9843,13 +10416,13 @@
         <v>103</v>
       </c>
       <c r="V191" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W191" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC191">
         <v>0</v>
@@ -9866,19 +10439,22 @@
       <c r="AG191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:33">
+      <c r="AH191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R192">
         <v>191</v>
       </c>
       <c r="S192" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T192">
         <v>59</v>
@@ -9887,13 +10463,13 @@
         <v>104</v>
       </c>
       <c r="V192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W192" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC192">
         <v>0</v>
@@ -9910,19 +10486,22 @@
       <c r="AG192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:33">
+      <c r="AH192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B193" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R193">
         <v>192</v>
       </c>
       <c r="S193" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T193">
         <v>59</v>
@@ -9931,13 +10510,13 @@
         <v>104</v>
       </c>
       <c r="V193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W193" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z193" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC193">
         <v>0</v>
@@ -9954,19 +10533,22 @@
       <c r="AG193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:33">
+      <c r="AH193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34">
       <c r="A194" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R194">
         <v>193</v>
       </c>
       <c r="S194" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T194">
         <v>59</v>
@@ -9975,13 +10557,13 @@
         <v>104</v>
       </c>
       <c r="V194" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W194" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z194" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC194">
         <v>0</v>
@@ -9998,19 +10580,22 @@
       <c r="AG194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:33">
+      <c r="AH194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B195" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R195">
         <v>194</v>
       </c>
       <c r="S195" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T195">
         <v>59</v>
@@ -10019,13 +10604,13 @@
         <v>104</v>
       </c>
       <c r="V195" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W195" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z195" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC195">
         <v>0</v>
@@ -10042,19 +10627,22 @@
       <c r="AG195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:33">
+      <c r="AH195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B196" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R196">
         <v>195</v>
       </c>
       <c r="S196" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T196">
         <v>59</v>
@@ -10063,13 +10651,13 @@
         <v>104</v>
       </c>
       <c r="V196" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W196" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z196" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC196">
         <v>0</v>
@@ -10086,19 +10674,22 @@
       <c r="AG196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:33">
+      <c r="AH196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B197" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R197">
         <v>196</v>
       </c>
       <c r="S197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T197">
         <v>60</v>
@@ -10107,13 +10698,13 @@
         <v>105</v>
       </c>
       <c r="V197" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W197" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z197" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC197">
         <v>0</v>
@@ -10130,19 +10721,22 @@
       <c r="AG197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:33">
+      <c r="AH197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B198" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R198">
         <v>197</v>
       </c>
       <c r="S198" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T198">
         <v>61</v>
@@ -10151,13 +10745,13 @@
         <v>106</v>
       </c>
       <c r="V198" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W198" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC198">
         <v>0</v>
@@ -10174,19 +10768,22 @@
       <c r="AG198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:33">
+      <c r="AH198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B199" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R199">
         <v>198</v>
       </c>
       <c r="S199" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T199">
         <v>61</v>
@@ -10195,13 +10792,13 @@
         <v>106</v>
       </c>
       <c r="V199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W199" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z199" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC199">
         <v>0</v>
@@ -10218,19 +10815,22 @@
       <c r="AG199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:33">
+      <c r="AH199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B200" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R200">
         <v>199</v>
       </c>
       <c r="S200" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T200">
         <v>62</v>
@@ -10239,13 +10839,13 @@
         <v>107</v>
       </c>
       <c r="V200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W200" s="2">
         <v>45045.17372685186</v>
       </c>
       <c r="Z200" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC200">
         <v>0</v>
@@ -10262,19 +10862,22 @@
       <c r="AG200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:33">
+      <c r="AH200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R201">
         <v>200</v>
       </c>
       <c r="S201" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T201">
         <v>63</v>
@@ -10283,13 +10886,13 @@
         <v>109</v>
       </c>
       <c r="V201" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W201" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="Z201" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC201">
         <v>0</v>
@@ -10306,19 +10909,22 @@
       <c r="AG201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:33">
+      <c r="AH201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R202">
         <v>201</v>
       </c>
       <c r="S202" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T202">
         <v>64</v>
@@ -10327,13 +10933,13 @@
         <v>110</v>
       </c>
       <c r="V202" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W202" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z202" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC202">
         <v>0</v>
@@ -10350,19 +10956,22 @@
       <c r="AG202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:33">
+      <c r="AH202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34">
       <c r="A203" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B203" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R203">
         <v>202</v>
       </c>
       <c r="S203" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T203">
         <v>64</v>
@@ -10371,13 +10980,13 @@
         <v>110</v>
       </c>
       <c r="V203" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W203" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z203" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC203">
         <v>0</v>
@@ -10394,19 +11003,22 @@
       <c r="AG203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:33">
+      <c r="AH203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B204" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R204">
         <v>203</v>
       </c>
       <c r="S204" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T204">
         <v>65</v>
@@ -10415,13 +11027,13 @@
         <v>111</v>
       </c>
       <c r="V204" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W204" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC204">
         <v>0</v>
@@ -10438,19 +11050,22 @@
       <c r="AG204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:33">
+      <c r="AH204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34">
       <c r="A205" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B205" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R205">
         <v>204</v>
       </c>
       <c r="S205" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T205">
         <v>66</v>
@@ -10459,13 +11074,13 @@
         <v>113</v>
       </c>
       <c r="V205" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W205" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z205" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC205">
         <v>0</v>
@@ -10482,19 +11097,22 @@
       <c r="AG205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:33">
+      <c r="AH205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B206" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R206">
         <v>205</v>
       </c>
       <c r="S206" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T206">
         <v>67</v>
@@ -10503,13 +11121,13 @@
         <v>114</v>
       </c>
       <c r="V206" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W206" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="Z206" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC206">
         <v>0</v>
@@ -10526,19 +11144,22 @@
       <c r="AG206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:33">
+      <c r="AH206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B207" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R207">
         <v>206</v>
       </c>
       <c r="S207" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T207">
         <v>68</v>
@@ -10547,13 +11168,13 @@
         <v>115</v>
       </c>
       <c r="V207" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W207" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z207" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC207">
         <v>0</v>
@@ -10570,19 +11191,22 @@
       <c r="AG207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:33">
+      <c r="AH207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:34">
       <c r="A208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R208">
         <v>207</v>
       </c>
       <c r="S208" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T208">
         <v>69</v>
@@ -10591,13 +11215,13 @@
         <v>117</v>
       </c>
       <c r="V208" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W208" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="Z208" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC208">
         <v>0</v>
@@ -10614,19 +11238,22 @@
       <c r="AG208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:33">
+      <c r="AH208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R209">
         <v>208</v>
       </c>
       <c r="S209" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T209">
         <v>70</v>
@@ -10635,13 +11262,13 @@
         <v>118</v>
       </c>
       <c r="V209" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W209" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="Z209" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC209">
         <v>0</v>
@@ -10658,19 +11285,22 @@
       <c r="AG209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:33">
+      <c r="AH209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:34">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R210">
         <v>209</v>
       </c>
       <c r="S210" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T210">
         <v>71</v>
@@ -10679,13 +11309,13 @@
         <v>119</v>
       </c>
       <c r="V210" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W210" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z210" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC210">
         <v>0</v>
@@ -10702,19 +11332,22 @@
       <c r="AG210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:33">
+      <c r="AH210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R211">
         <v>210</v>
       </c>
       <c r="S211" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T211">
         <v>71</v>
@@ -10723,13 +11356,13 @@
         <v>119</v>
       </c>
       <c r="V211" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W211" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z211" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC211">
         <v>0</v>
@@ -10746,19 +11379,22 @@
       <c r="AG211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:33">
+      <c r="AH211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:34">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R212">
         <v>211</v>
       </c>
       <c r="S212" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T212">
         <v>71</v>
@@ -10767,13 +11403,13 @@
         <v>119</v>
       </c>
       <c r="V212" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W212" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z212" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC212">
         <v>0</v>
@@ -10790,19 +11426,22 @@
       <c r="AG212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:33">
+      <c r="AH212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:34">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R213">
         <v>212</v>
       </c>
       <c r="S213" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T213">
         <v>71</v>
@@ -10811,13 +11450,13 @@
         <v>119</v>
       </c>
       <c r="V213" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z213" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC213">
         <v>0</v>
@@ -10834,19 +11473,22 @@
       <c r="AG213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:33">
+      <c r="AH213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:34">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R214">
         <v>213</v>
       </c>
       <c r="S214" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T214">
         <v>71</v>
@@ -10855,13 +11497,13 @@
         <v>119</v>
       </c>
       <c r="V214" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W214" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z214" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC214">
         <v>0</v>
@@ -10878,19 +11520,22 @@
       <c r="AG214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:33">
+      <c r="AH214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:34">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R215">
         <v>214</v>
       </c>
       <c r="S215" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T215">
         <v>71</v>
@@ -10899,13 +11544,13 @@
         <v>119</v>
       </c>
       <c r="V215" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W215" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z215" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC215">
         <v>0</v>
@@ -10922,19 +11567,22 @@
       <c r="AG215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:33">
+      <c r="AH215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:34">
       <c r="A216" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B216" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R216">
         <v>215</v>
       </c>
       <c r="S216" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T216">
         <v>71</v>
@@ -10943,13 +11591,13 @@
         <v>119</v>
       </c>
       <c r="V216" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W216" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z216" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC216">
         <v>0</v>
@@ -10966,19 +11614,22 @@
       <c r="AG216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:33">
+      <c r="AH216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:34">
       <c r="A217" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B217" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R217">
         <v>216</v>
       </c>
       <c r="S217" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T217">
         <v>71</v>
@@ -10987,13 +11638,13 @@
         <v>119</v>
       </c>
       <c r="V217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W217" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC217">
         <v>0</v>
@@ -11010,19 +11661,22 @@
       <c r="AG217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:33">
+      <c r="AH217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:34">
       <c r="A218" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B218" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R218">
         <v>217</v>
       </c>
       <c r="S218" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T218">
         <v>71</v>
@@ -11031,13 +11685,13 @@
         <v>119</v>
       </c>
       <c r="V218" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W218" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC218">
         <v>0</v>
@@ -11052,6 +11706,9 @@
         <v>0</v>
       </c>
       <c r="AG218">
+        <v>0</v>
+      </c>
+      <c r="AH218">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="320">
   <si>
     <t>p21_can</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1394,13 +1397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF217"/>
+  <dimension ref="A1:AG217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,19 +1500,22 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1518,13 +1524,13 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="Z2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1538,19 +1544,22 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1559,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1579,19 +1588,22 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1600,13 +1612,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1620,19 +1632,22 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -1641,13 +1656,13 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1661,19 +1676,22 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1682,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1702,19 +1720,22 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -1723,13 +1744,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1743,19 +1764,22 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -1764,13 +1788,13 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1784,19 +1808,22 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1805,13 +1832,13 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1825,19 +1852,22 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1846,13 +1876,13 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1866,19 +1896,22 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1887,13 +1920,13 @@
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1907,19 +1940,22 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1928,13 +1964,13 @@
         <v>10</v>
       </c>
       <c r="V12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1948,19 +1984,22 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -1969,13 +2008,13 @@
         <v>10</v>
       </c>
       <c r="V13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1989,19 +2028,22 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -2010,13 +2052,13 @@
         <v>10</v>
       </c>
       <c r="V14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W14" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2030,19 +2072,22 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -2051,13 +2096,13 @@
         <v>12</v>
       </c>
       <c r="V15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2071,19 +2116,22 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T16">
         <v>7</v>
@@ -2092,13 +2140,13 @@
         <v>13</v>
       </c>
       <c r="V16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W16" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2112,19 +2160,22 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T17">
         <v>7</v>
@@ -2133,13 +2184,13 @@
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2153,19 +2204,22 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T18">
         <v>8</v>
@@ -2174,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="V18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W18" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2194,19 +2248,22 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T19">
         <v>9</v>
@@ -2215,13 +2272,13 @@
         <v>15</v>
       </c>
       <c r="V19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W19" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2235,19 +2292,22 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T20">
         <v>10</v>
@@ -2256,13 +2316,13 @@
         <v>16</v>
       </c>
       <c r="V20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W20" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2276,19 +2336,22 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2297,13 +2360,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2317,19 +2380,22 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2338,13 +2404,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2358,19 +2424,22 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -2379,13 +2448,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2399,19 +2468,22 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -2420,13 +2492,13 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2440,19 +2512,22 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T25">
         <v>11</v>
@@ -2461,13 +2536,13 @@
         <v>17</v>
       </c>
       <c r="V25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2481,19 +2556,22 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T26">
         <v>11</v>
@@ -2502,13 +2580,13 @@
         <v>17</v>
       </c>
       <c r="V26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2522,19 +2600,22 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T27">
         <v>11</v>
@@ -2543,13 +2624,13 @@
         <v>17</v>
       </c>
       <c r="V27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -2563,19 +2644,22 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T28">
         <v>11</v>
@@ -2584,13 +2668,13 @@
         <v>17</v>
       </c>
       <c r="V28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -2604,19 +2688,22 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T29">
         <v>11</v>
@@ -2625,13 +2712,13 @@
         <v>17</v>
       </c>
       <c r="V29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -2645,19 +2732,22 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T30">
         <v>11</v>
@@ -2666,13 +2756,13 @@
         <v>17</v>
       </c>
       <c r="V30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -2686,19 +2776,22 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T31">
         <v>12</v>
@@ -2707,13 +2800,13 @@
         <v>18</v>
       </c>
       <c r="V31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W31" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -2727,19 +2820,22 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T32">
         <v>13</v>
@@ -2748,13 +2844,13 @@
         <v>20</v>
       </c>
       <c r="V32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W32" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -2768,19 +2864,22 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T33">
         <v>13</v>
@@ -2789,13 +2888,13 @@
         <v>20</v>
       </c>
       <c r="V33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W33" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -2809,19 +2908,22 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T34">
         <v>14</v>
@@ -2830,13 +2932,13 @@
         <v>21</v>
       </c>
       <c r="V34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -2850,19 +2952,22 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T35">
         <v>14</v>
@@ -2871,13 +2976,13 @@
         <v>21</v>
       </c>
       <c r="V35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W35" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -2891,19 +2996,22 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T36">
         <v>15</v>
@@ -2912,13 +3020,13 @@
         <v>22</v>
       </c>
       <c r="V36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -2932,19 +3040,22 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T37">
         <v>15</v>
@@ -2953,13 +3064,13 @@
         <v>22</v>
       </c>
       <c r="V37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W37" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -2973,19 +3084,22 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T38">
         <v>16</v>
@@ -2994,13 +3108,13 @@
         <v>25</v>
       </c>
       <c r="V38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -3014,19 +3128,22 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T39">
         <v>16</v>
@@ -3035,13 +3152,13 @@
         <v>25</v>
       </c>
       <c r="V39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W39" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -3055,19 +3172,22 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T40">
         <v>16</v>
@@ -3076,13 +3196,13 @@
         <v>25</v>
       </c>
       <c r="V40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W40" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -3096,19 +3216,22 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T41">
         <v>17</v>
@@ -3117,13 +3240,13 @@
         <v>26</v>
       </c>
       <c r="V41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W41" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -3137,19 +3260,22 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T42">
         <v>17</v>
@@ -3158,13 +3284,13 @@
         <v>26</v>
       </c>
       <c r="V42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W42" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -3178,19 +3304,22 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T43">
         <v>17</v>
@@ -3199,13 +3328,13 @@
         <v>26</v>
       </c>
       <c r="V43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W43" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -3219,19 +3348,22 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T44">
         <v>17</v>
@@ -3240,13 +3372,13 @@
         <v>26</v>
       </c>
       <c r="V44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W44" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -3260,19 +3392,22 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T45">
         <v>17</v>
@@ -3281,13 +3416,13 @@
         <v>26</v>
       </c>
       <c r="V45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W45" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -3301,19 +3436,22 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T46">
         <v>17</v>
@@ -3322,13 +3460,13 @@
         <v>26</v>
       </c>
       <c r="V46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W46" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -3342,19 +3480,22 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T47">
         <v>17</v>
@@ -3363,13 +3504,13 @@
         <v>26</v>
       </c>
       <c r="V47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W47" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -3383,19 +3524,22 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T48">
         <v>17</v>
@@ -3404,13 +3548,13 @@
         <v>26</v>
       </c>
       <c r="V48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -3424,19 +3568,22 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T49">
         <v>18</v>
@@ -3445,13 +3592,13 @@
         <v>27</v>
       </c>
       <c r="V49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -3465,19 +3612,22 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T50">
         <v>19</v>
@@ -3486,13 +3636,13 @@
         <v>30</v>
       </c>
       <c r="V50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z50" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -3506,19 +3656,22 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T51">
         <v>19</v>
@@ -3527,13 +3680,13 @@
         <v>30</v>
       </c>
       <c r="V51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -3547,19 +3700,22 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T52">
         <v>19</v>
@@ -3568,13 +3724,13 @@
         <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -3588,19 +3744,22 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T53">
         <v>19</v>
@@ -3609,13 +3768,13 @@
         <v>30</v>
       </c>
       <c r="V53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W53" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -3629,19 +3788,22 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T54">
         <v>19</v>
@@ -3650,13 +3812,13 @@
         <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W54" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -3670,19 +3832,22 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T55">
         <v>20</v>
@@ -3691,13 +3856,13 @@
         <v>33</v>
       </c>
       <c r="V55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W55" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -3711,19 +3876,22 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T56">
         <v>21</v>
@@ -3732,13 +3900,13 @@
         <v>34</v>
       </c>
       <c r="V56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W56" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z56" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -3752,19 +3920,22 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T57">
         <v>21</v>
@@ -3773,13 +3944,13 @@
         <v>34</v>
       </c>
       <c r="V57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W57" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -3793,19 +3964,22 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T58">
         <v>21</v>
@@ -3814,13 +3988,13 @@
         <v>34</v>
       </c>
       <c r="V58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W58" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z58" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -3834,19 +4008,22 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T59">
         <v>21</v>
@@ -3855,13 +4032,13 @@
         <v>34</v>
       </c>
       <c r="V59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W59" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -3875,19 +4052,22 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T60">
         <v>21</v>
@@ -3896,13 +4076,13 @@
         <v>34</v>
       </c>
       <c r="V60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W60" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -3916,19 +4096,22 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T61">
         <v>21</v>
@@ -3937,13 +4120,13 @@
         <v>34</v>
       </c>
       <c r="V61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W61" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z61" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -3957,19 +4140,22 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T62">
         <v>22</v>
@@ -3978,13 +4164,13 @@
         <v>37</v>
       </c>
       <c r="V62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W62" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z62" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -3998,19 +4184,22 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T63">
         <v>22</v>
@@ -4019,13 +4208,13 @@
         <v>37</v>
       </c>
       <c r="V63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W63" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -4039,19 +4228,22 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T64">
         <v>22</v>
@@ -4060,13 +4252,13 @@
         <v>37</v>
       </c>
       <c r="V64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W64" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -4080,19 +4272,22 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T65">
         <v>22</v>
@@ -4101,13 +4296,13 @@
         <v>37</v>
       </c>
       <c r="V65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W65" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -4121,19 +4316,22 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T66">
         <v>22</v>
@@ -4142,13 +4340,13 @@
         <v>37</v>
       </c>
       <c r="V66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W66" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -4162,19 +4360,22 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T67">
         <v>23</v>
@@ -4183,13 +4384,13 @@
         <v>38</v>
       </c>
       <c r="V67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W67" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z67" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -4203,19 +4404,22 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -4224,13 +4428,13 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W68" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -4244,19 +4448,22 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T69">
         <v>24</v>
@@ -4265,13 +4472,13 @@
         <v>51</v>
       </c>
       <c r="V69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W69" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -4285,19 +4492,22 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T70">
         <v>24</v>
@@ -4306,13 +4516,13 @@
         <v>51</v>
       </c>
       <c r="V70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W70" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z70" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -4326,19 +4536,22 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T71">
         <v>24</v>
@@ -4347,13 +4560,13 @@
         <v>51</v>
       </c>
       <c r="V71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W71" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -4367,19 +4580,22 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T72">
         <v>24</v>
@@ -4388,13 +4604,13 @@
         <v>51</v>
       </c>
       <c r="V72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W72" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z72" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -4408,19 +4624,22 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T73">
         <v>24</v>
@@ -4429,13 +4648,13 @@
         <v>51</v>
       </c>
       <c r="V73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W73" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -4449,19 +4668,22 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T74">
         <v>24</v>
@@ -4470,13 +4692,13 @@
         <v>51</v>
       </c>
       <c r="V74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W74" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z74" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -4490,19 +4712,22 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T75">
         <v>25</v>
@@ -4511,13 +4736,13 @@
         <v>52</v>
       </c>
       <c r="V75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W75" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -4531,19 +4756,22 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T76">
         <v>26</v>
@@ -4552,13 +4780,13 @@
         <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W76" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -4572,19 +4800,22 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T77">
         <v>26</v>
@@ -4593,13 +4824,13 @@
         <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W77" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z77" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -4613,19 +4844,22 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T78">
         <v>26</v>
@@ -4634,13 +4868,13 @@
         <v>55</v>
       </c>
       <c r="V78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W78" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -4654,19 +4888,22 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T79">
         <v>26</v>
@@ -4675,13 +4912,13 @@
         <v>55</v>
       </c>
       <c r="V79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W79" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -4695,19 +4932,22 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T80">
         <v>26</v>
@@ -4716,13 +4956,13 @@
         <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W80" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -4736,19 +4976,22 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T81">
         <v>27</v>
@@ -4757,13 +5000,13 @@
         <v>56</v>
       </c>
       <c r="V81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W81" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -4777,19 +5020,22 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T82">
         <v>28</v>
@@ -4798,13 +5044,13 @@
         <v>57</v>
       </c>
       <c r="V82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W82" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -4818,19 +5064,22 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T83">
         <v>28</v>
@@ -4839,13 +5088,13 @@
         <v>57</v>
       </c>
       <c r="V83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W83" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -4859,19 +5108,22 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T84">
         <v>28</v>
@@ -4880,13 +5132,13 @@
         <v>57</v>
       </c>
       <c r="V84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W84" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -4900,19 +5152,22 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T85">
         <v>28</v>
@@ -4921,13 +5176,13 @@
         <v>57</v>
       </c>
       <c r="V85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W85" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z85" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -4941,19 +5196,22 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T86">
         <v>29</v>
@@ -4962,13 +5220,13 @@
         <v>58</v>
       </c>
       <c r="V86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W86" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -4982,19 +5240,22 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T87">
         <v>29</v>
@@ -5003,13 +5264,13 @@
         <v>58</v>
       </c>
       <c r="V87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W87" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -5023,19 +5284,22 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T88">
         <v>30</v>
@@ -5044,13 +5308,13 @@
         <v>59</v>
       </c>
       <c r="V88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W88" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z88" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -5064,19 +5328,22 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T89">
         <v>30</v>
@@ -5085,13 +5352,13 @@
         <v>59</v>
       </c>
       <c r="V89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W89" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -5105,19 +5372,22 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T90">
         <v>30</v>
@@ -5126,13 +5396,13 @@
         <v>59</v>
       </c>
       <c r="V90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W90" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -5146,19 +5416,22 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T91">
         <v>30</v>
@@ -5167,13 +5440,13 @@
         <v>59</v>
       </c>
       <c r="V91" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W91" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -5187,19 +5460,22 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T92">
         <v>30</v>
@@ -5208,13 +5484,13 @@
         <v>59</v>
       </c>
       <c r="V92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W92" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z92" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -5228,19 +5504,22 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T93">
         <v>30</v>
@@ -5249,13 +5528,13 @@
         <v>59</v>
       </c>
       <c r="V93" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W93" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -5269,19 +5548,22 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T94">
         <v>30</v>
@@ -5290,13 +5572,13 @@
         <v>59</v>
       </c>
       <c r="V94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W94" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -5310,19 +5592,22 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T95">
         <v>30</v>
@@ -5331,13 +5616,13 @@
         <v>59</v>
       </c>
       <c r="V95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W95" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z95" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -5351,19 +5636,22 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T96">
         <v>30</v>
@@ -5372,13 +5660,13 @@
         <v>59</v>
       </c>
       <c r="V96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W96" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -5392,19 +5680,22 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T97">
         <v>31</v>
@@ -5413,13 +5704,13 @@
         <v>60</v>
       </c>
       <c r="V97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W97" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z97" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -5433,19 +5724,22 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T98">
         <v>32</v>
@@ -5454,13 +5748,13 @@
         <v>61</v>
       </c>
       <c r="V98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W98" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z98" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -5474,19 +5768,22 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T99">
         <v>32</v>
@@ -5495,13 +5792,13 @@
         <v>61</v>
       </c>
       <c r="V99" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W99" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -5515,19 +5812,22 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T100">
         <v>32</v>
@@ -5536,13 +5836,13 @@
         <v>61</v>
       </c>
       <c r="V100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W100" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -5556,19 +5856,22 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T101">
         <v>33</v>
@@ -5577,13 +5880,13 @@
         <v>63</v>
       </c>
       <c r="V101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W101" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -5597,19 +5900,22 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T102">
         <v>33</v>
@@ -5618,13 +5924,13 @@
         <v>63</v>
       </c>
       <c r="V102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W102" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -5638,19 +5944,22 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T103">
         <v>33</v>
@@ -5659,13 +5968,13 @@
         <v>63</v>
       </c>
       <c r="V103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W103" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -5679,19 +5988,22 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T104">
         <v>33</v>
@@ -5700,13 +6012,13 @@
         <v>63</v>
       </c>
       <c r="V104" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W104" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -5720,19 +6032,22 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T105">
         <v>33</v>
@@ -5741,13 +6056,13 @@
         <v>63</v>
       </c>
       <c r="V105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W105" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -5761,19 +6076,22 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T106">
         <v>33</v>
@@ -5782,13 +6100,13 @@
         <v>63</v>
       </c>
       <c r="V106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W106" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -5802,19 +6120,22 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T107">
         <v>33</v>
@@ -5823,13 +6144,13 @@
         <v>63</v>
       </c>
       <c r="V107" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W107" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -5843,19 +6164,22 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T108">
         <v>34</v>
@@ -5864,13 +6188,13 @@
         <v>64</v>
       </c>
       <c r="V108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W108" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -5884,19 +6208,22 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T109">
         <v>35</v>
@@ -5905,13 +6232,13 @@
         <v>75</v>
       </c>
       <c r="V109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W109" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Z109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -5925,19 +6252,22 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T110">
         <v>36</v>
@@ -5946,13 +6276,13 @@
         <v>77</v>
       </c>
       <c r="V110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W110" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -5966,19 +6296,22 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T111">
         <v>36</v>
@@ -5987,13 +6320,13 @@
         <v>77</v>
       </c>
       <c r="V111" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W111" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z111" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -6007,19 +6340,22 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T112">
         <v>36</v>
@@ -6028,13 +6364,13 @@
         <v>77</v>
       </c>
       <c r="V112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W112" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -6048,19 +6384,22 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T113">
         <v>36</v>
@@ -6069,13 +6408,13 @@
         <v>77</v>
       </c>
       <c r="V113" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W113" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -6089,19 +6428,22 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T114">
         <v>36</v>
@@ -6110,13 +6452,13 @@
         <v>77</v>
       </c>
       <c r="V114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W114" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z114" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -6130,19 +6472,22 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T115">
         <v>36</v>
@@ -6151,13 +6496,13 @@
         <v>77</v>
       </c>
       <c r="V115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W115" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z115" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -6171,19 +6516,22 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T116">
         <v>36</v>
@@ -6192,13 +6540,13 @@
         <v>77</v>
       </c>
       <c r="V116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W116" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -6212,19 +6560,22 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T117">
         <v>36</v>
@@ -6233,13 +6584,13 @@
         <v>77</v>
       </c>
       <c r="V117" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W117" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z117" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -6253,19 +6604,22 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T118">
         <v>36</v>
@@ -6274,13 +6628,13 @@
         <v>77</v>
       </c>
       <c r="V118" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W118" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z118" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -6294,19 +6648,22 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T119">
         <v>37</v>
@@ -6315,13 +6672,13 @@
         <v>78</v>
       </c>
       <c r="V119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W119" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z119" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -6335,19 +6692,22 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T120">
         <v>38</v>
@@ -6356,13 +6716,13 @@
         <v>80</v>
       </c>
       <c r="V120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W120" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z120" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -6376,19 +6736,22 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T121">
         <v>39</v>
@@ -6397,13 +6760,13 @@
         <v>81</v>
       </c>
       <c r="V121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W121" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z121" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -6417,19 +6780,22 @@
       <c r="AF121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T122">
         <v>39</v>
@@ -6438,13 +6804,13 @@
         <v>81</v>
       </c>
       <c r="V122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W122" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z122" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -6458,19 +6824,22 @@
       <c r="AF122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T123">
         <v>39</v>
@@ -6479,13 +6848,13 @@
         <v>81</v>
       </c>
       <c r="V123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W123" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -6499,19 +6868,22 @@
       <c r="AF123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T124">
         <v>39</v>
@@ -6520,13 +6892,13 @@
         <v>81</v>
       </c>
       <c r="V124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W124" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -6540,19 +6912,22 @@
       <c r="AF124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T125">
         <v>39</v>
@@ -6561,13 +6936,13 @@
         <v>81</v>
       </c>
       <c r="V125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W125" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z125" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -6581,19 +6956,22 @@
       <c r="AF125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T126">
         <v>39</v>
@@ -6602,13 +6980,13 @@
         <v>81</v>
       </c>
       <c r="V126" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W126" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -6622,19 +7000,22 @@
       <c r="AF126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T127">
         <v>39</v>
@@ -6643,13 +7024,13 @@
         <v>81</v>
       </c>
       <c r="V127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W127" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z127" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -6663,19 +7044,22 @@
       <c r="AF127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T128">
         <v>39</v>
@@ -6684,13 +7068,13 @@
         <v>81</v>
       </c>
       <c r="V128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W128" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z128" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -6704,19 +7088,22 @@
       <c r="AF128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T129">
         <v>39</v>
@@ -6725,13 +7112,13 @@
         <v>81</v>
       </c>
       <c r="V129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W129" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z129" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -6745,19 +7132,22 @@
       <c r="AF129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T130">
         <v>39</v>
@@ -6766,13 +7156,13 @@
         <v>81</v>
       </c>
       <c r="V130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W130" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -6786,19 +7176,22 @@
       <c r="AF130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T131">
         <v>40</v>
@@ -6807,13 +7200,13 @@
         <v>82</v>
       </c>
       <c r="V131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W131" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z131" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -6827,19 +7220,22 @@
       <c r="AF131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T132">
         <v>40</v>
@@ -6848,13 +7244,13 @@
         <v>82</v>
       </c>
       <c r="V132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W132" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z132" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -6868,19 +7264,22 @@
       <c r="AF132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T133">
         <v>40</v>
@@ -6889,13 +7288,13 @@
         <v>82</v>
       </c>
       <c r="V133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W133" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z133" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -6909,19 +7308,22 @@
       <c r="AF133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T134">
         <v>40</v>
@@ -6930,13 +7332,13 @@
         <v>82</v>
       </c>
       <c r="V134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W134" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -6950,19 +7352,22 @@
       <c r="AF134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T135">
         <v>41</v>
@@ -6971,13 +7376,13 @@
         <v>83</v>
       </c>
       <c r="V135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W135" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="Z135" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -6991,19 +7396,22 @@
       <c r="AF135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T136">
         <v>42</v>
@@ -7012,13 +7420,13 @@
         <v>84</v>
       </c>
       <c r="V136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W136" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z136" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -7032,19 +7440,22 @@
       <c r="AF136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T137">
         <v>42</v>
@@ -7053,13 +7464,13 @@
         <v>84</v>
       </c>
       <c r="V137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W137" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z137" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -7073,19 +7484,22 @@
       <c r="AF137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T138">
         <v>42</v>
@@ -7094,13 +7508,13 @@
         <v>84</v>
       </c>
       <c r="V138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W138" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -7114,19 +7528,22 @@
       <c r="AF138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T139">
         <v>42</v>
@@ -7135,13 +7552,13 @@
         <v>84</v>
       </c>
       <c r="V139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W139" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z139" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -7155,19 +7572,22 @@
       <c r="AF139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T140">
         <v>42</v>
@@ -7176,13 +7596,13 @@
         <v>84</v>
       </c>
       <c r="V140" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W140" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z140" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -7196,19 +7616,22 @@
       <c r="AF140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T141">
         <v>42</v>
@@ -7217,13 +7640,13 @@
         <v>84</v>
       </c>
       <c r="V141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W141" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z141" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -7237,19 +7660,22 @@
       <c r="AF141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:32">
+      <c r="AG141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T142">
         <v>43</v>
@@ -7258,13 +7684,13 @@
         <v>86</v>
       </c>
       <c r="V142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W142" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="Z142" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -7278,19 +7704,22 @@
       <c r="AF142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:32">
+      <c r="AG142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T143">
         <v>44</v>
@@ -7299,13 +7728,13 @@
         <v>87</v>
       </c>
       <c r="V143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W143" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z143" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -7319,19 +7748,22 @@
       <c r="AF143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:32">
+      <c r="AG143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T144">
         <v>44</v>
@@ -7340,13 +7772,13 @@
         <v>87</v>
       </c>
       <c r="V144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W144" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z144" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -7360,19 +7792,22 @@
       <c r="AF144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:32">
+      <c r="AG144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T145">
         <v>44</v>
@@ -7381,13 +7816,13 @@
         <v>87</v>
       </c>
       <c r="V145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W145" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z145" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -7401,19 +7836,22 @@
       <c r="AF145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:32">
+      <c r="AG145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T146">
         <v>45</v>
@@ -7422,13 +7860,13 @@
         <v>88</v>
       </c>
       <c r="V146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W146" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z146" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -7442,19 +7880,22 @@
       <c r="AF146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:32">
+      <c r="AG146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T147">
         <v>45</v>
@@ -7463,13 +7904,13 @@
         <v>88</v>
       </c>
       <c r="V147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W147" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z147" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -7483,19 +7924,22 @@
       <c r="AF147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:32">
+      <c r="AG147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T148">
         <v>45</v>
@@ -7504,13 +7948,13 @@
         <v>88</v>
       </c>
       <c r="V148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W148" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z148" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -7524,19 +7968,22 @@
       <c r="AF148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:32">
+      <c r="AG148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T149">
         <v>45</v>
@@ -7545,13 +7992,13 @@
         <v>88</v>
       </c>
       <c r="V149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W149" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -7565,19 +8012,22 @@
       <c r="AF149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T150">
         <v>45</v>
@@ -7586,13 +8036,13 @@
         <v>88</v>
       </c>
       <c r="V150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W150" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z150" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -7606,19 +8056,22 @@
       <c r="AF150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T151">
         <v>46</v>
@@ -7627,13 +8080,13 @@
         <v>90</v>
       </c>
       <c r="V151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W151" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z151" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -7647,19 +8100,22 @@
       <c r="AF151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:32">
+      <c r="AG151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T152">
         <v>46</v>
@@ -7668,13 +8124,13 @@
         <v>90</v>
       </c>
       <c r="V152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W152" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z152" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -7688,19 +8144,22 @@
       <c r="AF152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:32">
+      <c r="AG152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T153">
         <v>46</v>
@@ -7709,13 +8168,13 @@
         <v>90</v>
       </c>
       <c r="V153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W153" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z153" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -7729,19 +8188,22 @@
       <c r="AF153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:32">
+      <c r="AG153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T154">
         <v>46</v>
@@ -7750,13 +8212,13 @@
         <v>90</v>
       </c>
       <c r="V154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W154" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z154" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -7770,19 +8232,22 @@
       <c r="AF154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:32">
+      <c r="AG154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T155">
         <v>46</v>
@@ -7791,13 +8256,13 @@
         <v>90</v>
       </c>
       <c r="V155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W155" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z155" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -7811,19 +8276,22 @@
       <c r="AF155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:32">
+      <c r="AG155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33">
       <c r="A156" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T156">
         <v>47</v>
@@ -7832,13 +8300,13 @@
         <v>91</v>
       </c>
       <c r="V156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W156" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -7852,19 +8320,22 @@
       <c r="AF156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:32">
+      <c r="AG156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T157">
         <v>47</v>
@@ -7873,13 +8344,13 @@
         <v>91</v>
       </c>
       <c r="V157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W157" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z157" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -7893,19 +8364,22 @@
       <c r="AF157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:32">
+      <c r="AG157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T158">
         <v>48</v>
@@ -7914,13 +8388,13 @@
         <v>92</v>
       </c>
       <c r="V158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W158" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z158" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -7934,19 +8408,22 @@
       <c r="AF158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T159">
         <v>49</v>
@@ -7955,13 +8432,13 @@
         <v>93</v>
       </c>
       <c r="V159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W159" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -7975,19 +8452,22 @@
       <c r="AF159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T160">
         <v>49</v>
@@ -7996,13 +8476,13 @@
         <v>93</v>
       </c>
       <c r="V160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W160" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -8016,19 +8496,22 @@
       <c r="AF160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:32">
+      <c r="AG160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T161">
         <v>49</v>
@@ -8037,13 +8520,13 @@
         <v>93</v>
       </c>
       <c r="V161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W161" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -8057,19 +8540,22 @@
       <c r="AF161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:32">
+      <c r="AG161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T162">
         <v>49</v>
@@ -8078,13 +8564,13 @@
         <v>93</v>
       </c>
       <c r="V162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W162" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -8098,19 +8584,22 @@
       <c r="AF162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:32">
+      <c r="AG162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T163">
         <v>49</v>
@@ -8119,13 +8608,13 @@
         <v>93</v>
       </c>
       <c r="V163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W163" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -8139,19 +8628,22 @@
       <c r="AF163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:32">
+      <c r="AG163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R164">
         <v>163</v>
       </c>
       <c r="S164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T164">
         <v>50</v>
@@ -8160,13 +8652,13 @@
         <v>94</v>
       </c>
       <c r="V164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W164" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC164">
         <v>0</v>
@@ -8180,19 +8672,22 @@
       <c r="AF164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:32">
+      <c r="AG164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R165">
         <v>164</v>
       </c>
       <c r="S165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T165">
         <v>50</v>
@@ -8201,13 +8696,13 @@
         <v>94</v>
       </c>
       <c r="V165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W165" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC165">
         <v>0</v>
@@ -8221,19 +8716,22 @@
       <c r="AF165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:32">
+      <c r="AG165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R166">
         <v>165</v>
       </c>
       <c r="S166" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T166">
         <v>51</v>
@@ -8242,13 +8740,13 @@
         <v>95</v>
       </c>
       <c r="V166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W166" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC166">
         <v>0</v>
@@ -8262,19 +8760,22 @@
       <c r="AF166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:32">
+      <c r="AG166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R167">
         <v>166</v>
       </c>
       <c r="S167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T167">
         <v>51</v>
@@ -8283,13 +8784,13 @@
         <v>95</v>
       </c>
       <c r="V167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W167" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC167">
         <v>0</v>
@@ -8303,19 +8804,22 @@
       <c r="AF167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:32">
+      <c r="AG167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R168">
         <v>167</v>
       </c>
       <c r="S168" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T168">
         <v>51</v>
@@ -8324,13 +8828,13 @@
         <v>95</v>
       </c>
       <c r="V168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W168" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z168" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC168">
         <v>0</v>
@@ -8344,19 +8848,22 @@
       <c r="AF168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:32">
+      <c r="AG168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R169">
         <v>168</v>
       </c>
       <c r="S169" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T169">
         <v>51</v>
@@ -8365,13 +8872,13 @@
         <v>95</v>
       </c>
       <c r="V169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W169" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z169" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC169">
         <v>0</v>
@@ -8385,19 +8892,22 @@
       <c r="AF169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:32">
+      <c r="AG169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33">
       <c r="A170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R170">
         <v>169</v>
       </c>
       <c r="S170" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T170">
         <v>51</v>
@@ -8406,13 +8916,13 @@
         <v>95</v>
       </c>
       <c r="V170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W170" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC170">
         <v>0</v>
@@ -8426,19 +8936,22 @@
       <c r="AF170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:32">
+      <c r="AG170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R171">
         <v>170</v>
       </c>
       <c r="S171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T171">
         <v>51</v>
@@ -8447,13 +8960,13 @@
         <v>95</v>
       </c>
       <c r="V171" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W171" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z171" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC171">
         <v>0</v>
@@ -8467,19 +8980,22 @@
       <c r="AF171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:32">
+      <c r="AG171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R172">
         <v>171</v>
       </c>
       <c r="S172" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T172">
         <v>51</v>
@@ -8488,13 +9004,13 @@
         <v>95</v>
       </c>
       <c r="V172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W172" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC172">
         <v>0</v>
@@ -8508,19 +9024,22 @@
       <c r="AF172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:32">
+      <c r="AG172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R173">
         <v>172</v>
       </c>
       <c r="S173" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T173">
         <v>52</v>
@@ -8529,13 +9048,13 @@
         <v>96</v>
       </c>
       <c r="V173" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W173" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Z173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC173">
         <v>0</v>
@@ -8549,19 +9068,22 @@
       <c r="AF173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:32">
+      <c r="AG173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R174">
         <v>173</v>
       </c>
       <c r="S174" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T174">
         <v>53</v>
@@ -8570,13 +9092,13 @@
         <v>98</v>
       </c>
       <c r="V174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W174" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z174" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC174">
         <v>0</v>
@@ -8590,19 +9112,22 @@
       <c r="AF174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:32">
+      <c r="AG174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R175">
         <v>174</v>
       </c>
       <c r="S175" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T175">
         <v>53</v>
@@ -8611,13 +9136,13 @@
         <v>98</v>
       </c>
       <c r="V175" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W175" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z175" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC175">
         <v>0</v>
@@ -8631,19 +9156,22 @@
       <c r="AF175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:32">
+      <c r="AG175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R176">
         <v>175</v>
       </c>
       <c r="S176" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T176">
         <v>54</v>
@@ -8652,13 +9180,13 @@
         <v>99</v>
       </c>
       <c r="V176" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W176" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z176" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC176">
         <v>0</v>
@@ -8672,19 +9200,22 @@
       <c r="AF176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:32">
+      <c r="AG176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R177">
         <v>176</v>
       </c>
       <c r="S177" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T177">
         <v>55</v>
@@ -8693,13 +9224,13 @@
         <v>100</v>
       </c>
       <c r="V177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W177" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC177">
         <v>0</v>
@@ -8713,19 +9244,22 @@
       <c r="AF177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:32">
+      <c r="AG177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R178">
         <v>177</v>
       </c>
       <c r="S178" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T178">
         <v>55</v>
@@ -8734,13 +9268,13 @@
         <v>100</v>
       </c>
       <c r="V178" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W178" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z178" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC178">
         <v>0</v>
@@ -8754,19 +9288,22 @@
       <c r="AF178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:32">
+      <c r="AG178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R179">
         <v>178</v>
       </c>
       <c r="S179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T179">
         <v>55</v>
@@ -8775,13 +9312,13 @@
         <v>100</v>
       </c>
       <c r="V179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W179" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z179" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC179">
         <v>0</v>
@@ -8795,19 +9332,22 @@
       <c r="AF179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:32">
+      <c r="AG179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R180">
         <v>179</v>
       </c>
       <c r="S180" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T180">
         <v>55</v>
@@ -8816,13 +9356,13 @@
         <v>100</v>
       </c>
       <c r="V180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W180" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC180">
         <v>0</v>
@@ -8836,19 +9376,22 @@
       <c r="AF180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:32">
+      <c r="AG180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R181">
         <v>180</v>
       </c>
       <c r="S181" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T181">
         <v>55</v>
@@ -8857,13 +9400,13 @@
         <v>100</v>
       </c>
       <c r="V181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W181" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z181" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC181">
         <v>0</v>
@@ -8877,19 +9420,22 @@
       <c r="AF181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:32">
+      <c r="AG181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B182" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R182">
         <v>181</v>
       </c>
       <c r="S182" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T182">
         <v>56</v>
@@ -8898,13 +9444,13 @@
         <v>101</v>
       </c>
       <c r="V182" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W182" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC182">
         <v>0</v>
@@ -8918,19 +9464,22 @@
       <c r="AF182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:32">
+      <c r="AG182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B183" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R183">
         <v>182</v>
       </c>
       <c r="S183" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T183">
         <v>56</v>
@@ -8939,13 +9488,13 @@
         <v>101</v>
       </c>
       <c r="V183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W183" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z183" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC183">
         <v>0</v>
@@ -8959,19 +9508,22 @@
       <c r="AF183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:32">
+      <c r="AG183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R184">
         <v>183</v>
       </c>
       <c r="S184" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T184">
         <v>56</v>
@@ -8980,13 +9532,13 @@
         <v>101</v>
       </c>
       <c r="V184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W184" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC184">
         <v>0</v>
@@ -9000,19 +9552,22 @@
       <c r="AF184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:32">
+      <c r="AG184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B185" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R185">
         <v>184</v>
       </c>
       <c r="S185" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T185">
         <v>56</v>
@@ -9021,13 +9576,13 @@
         <v>101</v>
       </c>
       <c r="V185" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W185" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC185">
         <v>0</v>
@@ -9041,19 +9596,22 @@
       <c r="AF185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:32">
+      <c r="AG185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R186">
         <v>185</v>
       </c>
       <c r="S186" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T186">
         <v>56</v>
@@ -9062,13 +9620,13 @@
         <v>101</v>
       </c>
       <c r="V186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W186" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z186" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC186">
         <v>0</v>
@@ -9082,19 +9640,22 @@
       <c r="AF186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:32">
+      <c r="AG186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R187">
         <v>186</v>
       </c>
       <c r="S187" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T187">
         <v>57</v>
@@ -9103,13 +9664,13 @@
         <v>102</v>
       </c>
       <c r="V187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W187" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC187">
         <v>0</v>
@@ -9123,19 +9684,22 @@
       <c r="AF187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:32">
+      <c r="AG187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R188">
         <v>187</v>
       </c>
       <c r="S188" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T188">
         <v>57</v>
@@ -9144,13 +9708,13 @@
         <v>102</v>
       </c>
       <c r="V188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W188" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z188" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC188">
         <v>0</v>
@@ -9164,19 +9728,22 @@
       <c r="AF188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:32">
+      <c r="AG188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R189">
         <v>188</v>
       </c>
       <c r="S189" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T189">
         <v>57</v>
@@ -9185,13 +9752,13 @@
         <v>102</v>
       </c>
       <c r="V189" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W189" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC189">
         <v>0</v>
@@ -9205,19 +9772,22 @@
       <c r="AF189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:32">
+      <c r="AG189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R190">
         <v>189</v>
       </c>
       <c r="S190" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T190">
         <v>57</v>
@@ -9226,13 +9796,13 @@
         <v>102</v>
       </c>
       <c r="V190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W190" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z190" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC190">
         <v>0</v>
@@ -9246,19 +9816,22 @@
       <c r="AF190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:32">
+      <c r="AG190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R191">
         <v>190</v>
       </c>
       <c r="S191" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T191">
         <v>58</v>
@@ -9267,13 +9840,13 @@
         <v>103</v>
       </c>
       <c r="V191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W191" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z191" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC191">
         <v>0</v>
@@ -9287,19 +9860,22 @@
       <c r="AF191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:32">
+      <c r="AG191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B192" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R192">
         <v>191</v>
       </c>
       <c r="S192" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T192">
         <v>59</v>
@@ -9308,13 +9884,13 @@
         <v>104</v>
       </c>
       <c r="V192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W192" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z192" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC192">
         <v>0</v>
@@ -9328,19 +9904,22 @@
       <c r="AF192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:32">
+      <c r="AG192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B193" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R193">
         <v>192</v>
       </c>
       <c r="S193" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T193">
         <v>59</v>
@@ -9349,13 +9928,13 @@
         <v>104</v>
       </c>
       <c r="V193" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W193" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z193" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC193">
         <v>0</v>
@@ -9369,19 +9948,22 @@
       <c r="AF193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:32">
+      <c r="AG193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B194" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R194">
         <v>193</v>
       </c>
       <c r="S194" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T194">
         <v>59</v>
@@ -9390,13 +9972,13 @@
         <v>104</v>
       </c>
       <c r="V194" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W194" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z194" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC194">
         <v>0</v>
@@ -9410,19 +9992,22 @@
       <c r="AF194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:32">
+      <c r="AG194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R195">
         <v>194</v>
       </c>
       <c r="S195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T195">
         <v>59</v>
@@ -9431,13 +10016,13 @@
         <v>104</v>
       </c>
       <c r="V195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W195" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z195" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC195">
         <v>0</v>
@@ -9451,19 +10036,22 @@
       <c r="AF195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:32">
+      <c r="AG195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R196">
         <v>195</v>
       </c>
       <c r="S196" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T196">
         <v>59</v>
@@ -9472,13 +10060,13 @@
         <v>104</v>
       </c>
       <c r="V196" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W196" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z196" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC196">
         <v>0</v>
@@ -9492,19 +10080,22 @@
       <c r="AF196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:32">
+      <c r="AG196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R197">
         <v>196</v>
       </c>
       <c r="S197" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T197">
         <v>60</v>
@@ -9513,13 +10104,13 @@
         <v>105</v>
       </c>
       <c r="V197" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W197" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z197" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC197">
         <v>0</v>
@@ -9533,19 +10124,22 @@
       <c r="AF197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:32">
+      <c r="AG197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R198">
         <v>197</v>
       </c>
       <c r="S198" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T198">
         <v>61</v>
@@ -9554,13 +10148,13 @@
         <v>106</v>
       </c>
       <c r="V198" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W198" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z198" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC198">
         <v>0</v>
@@ -9574,19 +10168,22 @@
       <c r="AF198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:32">
+      <c r="AG198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R199">
         <v>198</v>
       </c>
       <c r="S199" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T199">
         <v>61</v>
@@ -9595,13 +10192,13 @@
         <v>106</v>
       </c>
       <c r="V199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W199" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z199" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC199">
         <v>0</v>
@@ -9615,19 +10212,22 @@
       <c r="AF199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:32">
+      <c r="AG199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R200">
         <v>199</v>
       </c>
       <c r="S200" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T200">
         <v>62</v>
@@ -9636,13 +10236,13 @@
         <v>109</v>
       </c>
       <c r="V200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W200" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="Z200" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC200">
         <v>0</v>
@@ -9656,19 +10256,22 @@
       <c r="AF200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:32">
+      <c r="AG200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R201">
         <v>200</v>
       </c>
       <c r="S201" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T201">
         <v>63</v>
@@ -9677,13 +10280,13 @@
         <v>110</v>
       </c>
       <c r="V201" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W201" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z201" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC201">
         <v>0</v>
@@ -9697,19 +10300,22 @@
       <c r="AF201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:32">
+      <c r="AG201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R202">
         <v>201</v>
       </c>
       <c r="S202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T202">
         <v>63</v>
@@ -9718,13 +10324,13 @@
         <v>110</v>
       </c>
       <c r="V202" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W202" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z202" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC202">
         <v>0</v>
@@ -9738,19 +10344,22 @@
       <c r="AF202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:32">
+      <c r="AG202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33">
       <c r="A203" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R203">
         <v>202</v>
       </c>
       <c r="S203" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T203">
         <v>64</v>
@@ -9759,13 +10368,13 @@
         <v>111</v>
       </c>
       <c r="V203" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W203" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z203" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC203">
         <v>0</v>
@@ -9779,19 +10388,22 @@
       <c r="AF203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:32">
+      <c r="AG203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B204" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R204">
         <v>203</v>
       </c>
       <c r="S204" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T204">
         <v>65</v>
@@ -9800,13 +10412,13 @@
         <v>113</v>
       </c>
       <c r="V204" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W204" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z204" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC204">
         <v>0</v>
@@ -9820,19 +10432,22 @@
       <c r="AF204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:32">
+      <c r="AG204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33">
       <c r="A205" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B205" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R205">
         <v>204</v>
       </c>
       <c r="S205" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T205">
         <v>66</v>
@@ -9841,13 +10456,13 @@
         <v>114</v>
       </c>
       <c r="V205" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W205" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="Z205" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC205">
         <v>0</v>
@@ -9861,19 +10476,22 @@
       <c r="AF205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:32">
+      <c r="AG205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B206" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R206">
         <v>205</v>
       </c>
       <c r="S206" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T206">
         <v>67</v>
@@ -9882,13 +10500,13 @@
         <v>115</v>
       </c>
       <c r="V206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W206" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z206" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC206">
         <v>0</v>
@@ -9902,19 +10520,22 @@
       <c r="AF206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:32">
+      <c r="AG206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B207" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R207">
         <v>206</v>
       </c>
       <c r="S207" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T207">
         <v>68</v>
@@ -9923,13 +10544,13 @@
         <v>117</v>
       </c>
       <c r="V207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W207" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="Z207" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC207">
         <v>0</v>
@@ -9943,19 +10564,22 @@
       <c r="AF207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:32">
+      <c r="AG207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33">
       <c r="A208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R208">
         <v>207</v>
       </c>
       <c r="S208" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T208">
         <v>69</v>
@@ -9964,13 +10588,13 @@
         <v>118</v>
       </c>
       <c r="V208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W208" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="Z208" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC208">
         <v>0</v>
@@ -9984,19 +10608,22 @@
       <c r="AF208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:32">
+      <c r="AG208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R209">
         <v>208</v>
       </c>
       <c r="S209" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T209">
         <v>70</v>
@@ -10005,13 +10632,13 @@
         <v>119</v>
       </c>
       <c r="V209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W209" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z209" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC209">
         <v>0</v>
@@ -10025,19 +10652,22 @@
       <c r="AF209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:32">
+      <c r="AG209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R210">
         <v>209</v>
       </c>
       <c r="S210" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T210">
         <v>70</v>
@@ -10046,13 +10676,13 @@
         <v>119</v>
       </c>
       <c r="V210" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W210" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z210" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC210">
         <v>0</v>
@@ -10066,19 +10696,22 @@
       <c r="AF210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:32">
+      <c r="AG210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R211">
         <v>210</v>
       </c>
       <c r="S211" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T211">
         <v>70</v>
@@ -10087,13 +10720,13 @@
         <v>119</v>
       </c>
       <c r="V211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W211" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z211" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC211">
         <v>0</v>
@@ -10107,19 +10740,22 @@
       <c r="AF211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:32">
+      <c r="AG211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R212">
         <v>211</v>
       </c>
       <c r="S212" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T212">
         <v>70</v>
@@ -10128,13 +10764,13 @@
         <v>119</v>
       </c>
       <c r="V212" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W212" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC212">
         <v>0</v>
@@ -10148,19 +10784,22 @@
       <c r="AF212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:32">
+      <c r="AG212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R213">
         <v>212</v>
       </c>
       <c r="S213" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T213">
         <v>70</v>
@@ -10169,13 +10808,13 @@
         <v>119</v>
       </c>
       <c r="V213" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z213" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC213">
         <v>0</v>
@@ -10189,19 +10828,22 @@
       <c r="AF213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:32">
+      <c r="AG213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R214">
         <v>213</v>
       </c>
       <c r="S214" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T214">
         <v>70</v>
@@ -10210,13 +10852,13 @@
         <v>119</v>
       </c>
       <c r="V214" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W214" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC214">
         <v>0</v>
@@ -10230,19 +10872,22 @@
       <c r="AF214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:32">
+      <c r="AG214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R215">
         <v>214</v>
       </c>
       <c r="S215" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T215">
         <v>70</v>
@@ -10251,13 +10896,13 @@
         <v>119</v>
       </c>
       <c r="V215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W215" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC215">
         <v>0</v>
@@ -10271,19 +10916,22 @@
       <c r="AF215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:32">
+      <c r="AG215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33">
       <c r="A216" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B216" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R216">
         <v>215</v>
       </c>
       <c r="S216" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T216">
         <v>70</v>
@@ -10292,13 +10940,13 @@
         <v>119</v>
       </c>
       <c r="V216" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W216" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC216">
         <v>0</v>
@@ -10312,19 +10960,22 @@
       <c r="AF216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:32">
+      <c r="AG216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33">
       <c r="A217" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R217">
         <v>216</v>
       </c>
       <c r="S217" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T217">
         <v>70</v>
@@ -10333,13 +10984,13 @@
         <v>119</v>
       </c>
       <c r="V217" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W217" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z217" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC217">
         <v>0</v>
@@ -10351,6 +11002,9 @@
         <v>0</v>
       </c>
       <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -5625,13 +5625,13 @@
         <v>316</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -5663,13 +5663,13 @@
         <v>316</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -5701,13 +5701,13 @@
         <v>316</v>
       </c>
       <c r="AC112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -5739,13 +5739,13 @@
         <v>316</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -5777,13 +5777,13 @@
         <v>316</v>
       </c>
       <c r="AC114">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -5815,13 +5815,13 @@
         <v>316</v>
       </c>
       <c r="AC115">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE115">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -5853,13 +5853,13 @@
         <v>316</v>
       </c>
       <c r="AC116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:31">
@@ -5891,13 +5891,13 @@
         <v>316</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -5929,13 +5929,13 @@
         <v>316</v>
       </c>
       <c r="AC118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:31">

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -6879,13 +6879,13 @@
         <v>316</v>
       </c>
       <c r="AC143">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE143">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144" spans="1:31">
@@ -6917,13 +6917,13 @@
         <v>316</v>
       </c>
       <c r="AC144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:31">
@@ -6955,13 +6955,13 @@
         <v>316</v>
       </c>
       <c r="AC145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146" spans="1:31">

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -6879,13 +6879,13 @@
         <v>316</v>
       </c>
       <c r="AC143">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD143">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AE143">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:31">
@@ -6917,13 +6917,13 @@
         <v>316</v>
       </c>
       <c r="AC144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:31">
@@ -6955,13 +6955,13 @@
         <v>316</v>
       </c>
       <c r="AC145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:31">

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Jose\Downloads\bucles\files\separadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0AB5B6-41BA-48FE-9968-3F04DB8F41D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FBA36F-FCCA-47F5-B3D1-5F458FEDABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="316">
   <si>
     <t>p21_can</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1027,7 +1024,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1083,7 +1080,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,15 +1383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD217"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,22 +1479,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1506,33 +1500,30 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="2">
         <v>44992.706018518518</v>
       </c>
       <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1541,33 +1532,30 @@
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" s="2">
         <v>44998.826516203713</v>
       </c>
       <c r="Z3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1576,33 +1564,30 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" s="2">
         <v>45013.731631944444</v>
       </c>
       <c r="Z4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -1611,33 +1596,30 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W5" s="2">
         <v>45021.788078703707</v>
       </c>
       <c r="Z5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1646,33 +1628,30 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W6" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC6">
         <v>0.3</v>
       </c>
-      <c r="AD6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -1681,33 +1660,30 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W7" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC7">
         <v>0.5</v>
       </c>
-      <c r="AD7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -1716,33 +1692,30 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W8" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC8">
         <v>0.5</v>
       </c>
-      <c r="AD8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1751,33 +1724,30 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W9" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC9">
         <v>0.5</v>
       </c>
-      <c r="AD9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1786,33 +1756,30 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W10" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC10">
         <v>0.5</v>
       </c>
-      <c r="AD10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1821,33 +1788,30 @@
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W11" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC11">
         <v>0.5</v>
       </c>
-      <c r="AD11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1856,33 +1820,30 @@
         <v>10</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W12" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC12">
         <v>0.5</v>
       </c>
-      <c r="AD12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -1891,33 +1852,30 @@
         <v>10</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W13" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC13">
         <v>0.5</v>
       </c>
-      <c r="AD13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -1926,33 +1884,30 @@
         <v>10</v>
       </c>
       <c r="V14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W14" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Z14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC14">
         <v>0.5</v>
       </c>
-      <c r="AD14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -1961,33 +1916,30 @@
         <v>12</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W15" s="2">
         <v>45026.782777777778</v>
       </c>
       <c r="Z15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16">
         <v>7</v>
@@ -1996,33 +1948,30 @@
         <v>13</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W16" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="Z16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17">
         <v>7</v>
@@ -2031,33 +1980,30 @@
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W17" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="Z17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18">
         <v>8</v>
@@ -2066,33 +2012,30 @@
         <v>14</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W18" s="2">
         <v>45028.798703703702</v>
       </c>
       <c r="Z18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19">
         <v>9</v>
@@ -2101,33 +2044,30 @@
         <v>15</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W19" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Z19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20">
         <v>10</v>
@@ -2136,33 +2076,30 @@
         <v>16</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W20" s="2">
         <v>45028.887245370373</v>
       </c>
       <c r="Z20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2171,33 +2108,30 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W21" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2206,33 +2140,30 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W22" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -2241,33 +2172,30 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W23" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -2276,33 +2204,30 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W24" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25">
         <v>11</v>
@@ -2311,33 +2236,30 @@
         <v>17</v>
       </c>
       <c r="V25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W25" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26">
         <v>11</v>
@@ -2346,33 +2268,30 @@
         <v>17</v>
       </c>
       <c r="V26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W26" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27">
         <v>11</v>
@@ -2381,33 +2300,30 @@
         <v>17</v>
       </c>
       <c r="V27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W27" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28">
         <v>11</v>
@@ -2416,33 +2332,30 @@
         <v>17</v>
       </c>
       <c r="V28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W28" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29">
         <v>11</v>
@@ -2451,33 +2364,30 @@
         <v>17</v>
       </c>
       <c r="V29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W29" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30">
         <v>11</v>
@@ -2486,33 +2396,30 @@
         <v>17</v>
       </c>
       <c r="V30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W30" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Z30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31">
         <v>12</v>
@@ -2521,33 +2428,30 @@
         <v>18</v>
       </c>
       <c r="V31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W31" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="Z31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T32">
         <v>13</v>
@@ -2556,33 +2460,30 @@
         <v>20</v>
       </c>
       <c r="V32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W32" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="Z32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33">
         <v>13</v>
@@ -2591,33 +2492,30 @@
         <v>20</v>
       </c>
       <c r="V33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W33" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="Z33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34">
         <v>14</v>
@@ -2626,33 +2524,30 @@
         <v>21</v>
       </c>
       <c r="V34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W34" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="Z34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35">
         <v>14</v>
@@ -2661,33 +2556,30 @@
         <v>21</v>
       </c>
       <c r="V35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W35" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="Z35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T36">
         <v>15</v>
@@ -2696,33 +2588,30 @@
         <v>22</v>
       </c>
       <c r="V36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC36">
         <v>0</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T37">
         <v>15</v>
@@ -2731,33 +2620,30 @@
         <v>22</v>
       </c>
       <c r="V37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W37" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC37">
         <v>0</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T38">
         <v>16</v>
@@ -2766,33 +2652,30 @@
         <v>25</v>
       </c>
       <c r="V38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W38" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="Z38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T39">
         <v>16</v>
@@ -2801,33 +2684,30 @@
         <v>25</v>
       </c>
       <c r="V39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W39" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="Z39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC39">
         <v>0</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T40">
         <v>16</v>
@@ -2836,33 +2716,30 @@
         <v>25</v>
       </c>
       <c r="V40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W40" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="Z40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T41">
         <v>17</v>
@@ -2871,33 +2748,30 @@
         <v>26</v>
       </c>
       <c r="V41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W41" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC41">
         <v>0</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T42">
         <v>17</v>
@@ -2906,33 +2780,30 @@
         <v>26</v>
       </c>
       <c r="V42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC42">
         <v>0</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T43">
         <v>17</v>
@@ -2941,33 +2812,30 @@
         <v>26</v>
       </c>
       <c r="V43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W43" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC43">
         <v>0</v>
       </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T44">
         <v>17</v>
@@ -2976,33 +2844,30 @@
         <v>26</v>
       </c>
       <c r="V44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W44" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T45">
         <v>17</v>
@@ -3011,33 +2876,30 @@
         <v>26</v>
       </c>
       <c r="V45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W45" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC45">
         <v>0</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T46">
         <v>17</v>
@@ -3046,33 +2908,30 @@
         <v>26</v>
       </c>
       <c r="V46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC46">
         <v>0</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T47">
         <v>17</v>
@@ -3081,33 +2940,30 @@
         <v>26</v>
       </c>
       <c r="V47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC47">
         <v>0</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T48">
         <v>17</v>
@@ -3116,33 +2972,30 @@
         <v>26</v>
       </c>
       <c r="V48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W48" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Z48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T49">
         <v>18</v>
@@ -3151,33 +3004,30 @@
         <v>27</v>
       </c>
       <c r="V49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W49" s="2">
         <v>45030.793912037043</v>
       </c>
       <c r="Z49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC49">
         <v>0</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T50">
         <v>19</v>
@@ -3186,33 +3036,30 @@
         <v>30</v>
       </c>
       <c r="V50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W50" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Z50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC50">
         <v>0</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T51">
         <v>19</v>
@@ -3221,33 +3068,30 @@
         <v>30</v>
       </c>
       <c r="V51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W51" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Z51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC51">
         <v>0</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T52">
         <v>19</v>
@@ -3256,33 +3100,30 @@
         <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W52" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Z52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC52">
         <v>0</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T53">
         <v>19</v>
@@ -3291,33 +3132,30 @@
         <v>30</v>
       </c>
       <c r="V53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W53" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Z53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC53">
         <v>0</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T54">
         <v>19</v>
@@ -3326,33 +3164,30 @@
         <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W54" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Z54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC54">
         <v>0</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T55">
         <v>20</v>
@@ -3361,33 +3196,30 @@
         <v>33</v>
       </c>
       <c r="V55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W55" s="2">
         <v>45030.958981481483</v>
       </c>
       <c r="Z55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC55">
         <v>0</v>
       </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T56">
         <v>21</v>
@@ -3396,33 +3228,30 @@
         <v>34</v>
       </c>
       <c r="V56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W56" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Z56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC56">
         <v>0.5</v>
       </c>
-      <c r="AD56">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T57">
         <v>21</v>
@@ -3431,33 +3260,30 @@
         <v>34</v>
       </c>
       <c r="V57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W57" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Z57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC57">
         <v>0.3</v>
       </c>
-      <c r="AD57">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T58">
         <v>21</v>
@@ -3466,33 +3292,30 @@
         <v>34</v>
       </c>
       <c r="V58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W58" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Z58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC58">
         <v>0.3</v>
       </c>
-      <c r="AD58">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T59">
         <v>21</v>
@@ -3501,33 +3324,30 @@
         <v>34</v>
       </c>
       <c r="V59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W59" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Z59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC59">
         <v>0.3</v>
       </c>
-      <c r="AD59">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T60">
         <v>21</v>
@@ -3536,33 +3356,30 @@
         <v>34</v>
       </c>
       <c r="V60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W60" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Z60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC60">
         <v>0.3</v>
       </c>
-      <c r="AD60">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T61">
         <v>21</v>
@@ -3571,33 +3388,30 @@
         <v>34</v>
       </c>
       <c r="V61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W61" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Z61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC61">
         <v>0.3</v>
       </c>
-      <c r="AD61">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T62">
         <v>22</v>
@@ -3606,33 +3420,30 @@
         <v>37</v>
       </c>
       <c r="V62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W62" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Z62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC62">
         <v>0</v>
       </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T63">
         <v>22</v>
@@ -3641,33 +3452,30 @@
         <v>37</v>
       </c>
       <c r="V63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W63" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Z63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC63">
         <v>0</v>
       </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T64">
         <v>22</v>
@@ -3676,33 +3484,30 @@
         <v>37</v>
       </c>
       <c r="V64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W64" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Z64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC64">
         <v>0</v>
       </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T65">
         <v>22</v>
@@ -3711,33 +3516,30 @@
         <v>37</v>
       </c>
       <c r="V65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W65" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Z65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC65">
         <v>0</v>
       </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T66">
         <v>22</v>
@@ -3746,33 +3548,30 @@
         <v>37</v>
       </c>
       <c r="V66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W66" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Z66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC66">
         <v>0</v>
       </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T67">
         <v>23</v>
@@ -3781,33 +3580,30 @@
         <v>38</v>
       </c>
       <c r="V67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W67" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Z67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC67">
         <v>0</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -3816,33 +3612,30 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W68" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC68">
         <v>0</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T69">
         <v>24</v>
@@ -3851,33 +3644,30 @@
         <v>51</v>
       </c>
       <c r="V69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W69" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC69">
         <v>0</v>
       </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T70">
         <v>24</v>
@@ -3886,33 +3676,30 @@
         <v>51</v>
       </c>
       <c r="V70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W70" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC70">
         <v>0</v>
       </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T71">
         <v>24</v>
@@ -3921,33 +3708,30 @@
         <v>51</v>
       </c>
       <c r="V71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W71" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC71">
         <v>0</v>
       </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T72">
         <v>24</v>
@@ -3956,33 +3740,30 @@
         <v>51</v>
       </c>
       <c r="V72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W72" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC72">
         <v>0</v>
       </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T73">
         <v>24</v>
@@ -3991,33 +3772,30 @@
         <v>51</v>
       </c>
       <c r="V73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W73" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC73">
         <v>0</v>
       </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T74">
         <v>24</v>
@@ -4026,33 +3804,30 @@
         <v>51</v>
       </c>
       <c r="V74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W74" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Z74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC74">
         <v>0</v>
       </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T75">
         <v>25</v>
@@ -4061,33 +3836,30 @@
         <v>52</v>
       </c>
       <c r="V75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W75" s="2">
         <v>45033.799467592587</v>
       </c>
       <c r="Z75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC75">
         <v>0</v>
       </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T76">
         <v>26</v>
@@ -4096,33 +3868,30 @@
         <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W76" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="Z76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC76">
         <v>0</v>
       </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T77">
         <v>26</v>
@@ -4131,33 +3900,30 @@
         <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W77" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="Z77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC77">
         <v>0</v>
       </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T78">
         <v>26</v>
@@ -4166,33 +3932,30 @@
         <v>55</v>
       </c>
       <c r="V78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W78" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="Z78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC78">
         <v>0</v>
       </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T79">
         <v>26</v>
@@ -4201,33 +3964,30 @@
         <v>55</v>
       </c>
       <c r="V79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W79" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="Z79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC79">
         <v>0</v>
       </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T80">
         <v>26</v>
@@ -4236,33 +3996,30 @@
         <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W80" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="Z80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC80">
         <v>0</v>
       </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T81">
         <v>27</v>
@@ -4271,33 +4028,30 @@
         <v>56</v>
       </c>
       <c r="V81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W81" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="Z81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC81">
         <v>0</v>
       </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T82">
         <v>28</v>
@@ -4306,33 +4060,30 @@
         <v>57</v>
       </c>
       <c r="V82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W82" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC82">
         <v>0</v>
       </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T83">
         <v>28</v>
@@ -4341,33 +4092,30 @@
         <v>57</v>
       </c>
       <c r="V83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W83" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC83">
         <v>0</v>
       </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T84">
         <v>28</v>
@@ -4376,33 +4124,30 @@
         <v>57</v>
       </c>
       <c r="V84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W84" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC84">
         <v>0</v>
       </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T85">
         <v>28</v>
@@ -4411,33 +4156,30 @@
         <v>57</v>
       </c>
       <c r="V85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W85" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC85">
         <v>0</v>
       </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T86">
         <v>29</v>
@@ -4446,33 +4188,30 @@
         <v>58</v>
       </c>
       <c r="V86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W86" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="Z86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC86">
         <v>0</v>
       </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T87">
         <v>29</v>
@@ -4481,33 +4220,30 @@
         <v>58</v>
       </c>
       <c r="V87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W87" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="Z87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC87">
         <v>0</v>
       </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T88">
         <v>30</v>
@@ -4516,33 +4252,30 @@
         <v>59</v>
       </c>
       <c r="V88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W88" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC88">
         <v>0</v>
       </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T89">
         <v>30</v>
@@ -4551,33 +4284,30 @@
         <v>59</v>
       </c>
       <c r="V89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W89" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC89">
         <v>0</v>
       </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T90">
         <v>30</v>
@@ -4586,33 +4316,30 @@
         <v>59</v>
       </c>
       <c r="V90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W90" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC90">
         <v>0</v>
       </c>
-      <c r="AD90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T91">
         <v>30</v>
@@ -4621,33 +4348,30 @@
         <v>59</v>
       </c>
       <c r="V91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W91" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC91">
         <v>0</v>
       </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T92">
         <v>30</v>
@@ -4656,33 +4380,30 @@
         <v>59</v>
       </c>
       <c r="V92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W92" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC92">
         <v>0</v>
       </c>
-      <c r="AD92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T93">
         <v>30</v>
@@ -4691,33 +4412,30 @@
         <v>59</v>
       </c>
       <c r="V93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W93" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC93">
         <v>0</v>
       </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T94">
         <v>30</v>
@@ -4726,33 +4444,30 @@
         <v>59</v>
       </c>
       <c r="V94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W94" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC94">
         <v>0</v>
       </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T95">
         <v>30</v>
@@ -4761,33 +4476,30 @@
         <v>59</v>
       </c>
       <c r="V95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W95" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC95">
         <v>0</v>
       </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T96">
         <v>30</v>
@@ -4796,33 +4508,30 @@
         <v>59</v>
       </c>
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W96" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Z96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC96">
         <v>0</v>
       </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T97">
         <v>31</v>
@@ -4831,33 +4540,30 @@
         <v>60</v>
       </c>
       <c r="V97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W97" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="Z97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC97">
         <v>0</v>
       </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T98">
         <v>32</v>
@@ -4866,33 +4572,30 @@
         <v>61</v>
       </c>
       <c r="V98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W98" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="Z98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC98">
         <v>0</v>
       </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T99">
         <v>32</v>
@@ -4901,33 +4604,30 @@
         <v>61</v>
       </c>
       <c r="V99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W99" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="Z99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC99">
         <v>0</v>
       </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T100">
         <v>32</v>
@@ -4936,33 +4636,30 @@
         <v>61</v>
       </c>
       <c r="V100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W100" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="Z100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC100">
         <v>0</v>
       </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T101">
         <v>33</v>
@@ -4971,33 +4668,30 @@
         <v>63</v>
       </c>
       <c r="V101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W101" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC101">
         <v>0</v>
       </c>
-      <c r="AD101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T102">
         <v>33</v>
@@ -5006,33 +4700,30 @@
         <v>63</v>
       </c>
       <c r="V102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W102" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC102">
         <v>0</v>
       </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T103">
         <v>33</v>
@@ -5041,33 +4732,30 @@
         <v>63</v>
       </c>
       <c r="V103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W103" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC103">
         <v>0</v>
       </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T104">
         <v>33</v>
@@ -5076,33 +4764,30 @@
         <v>63</v>
       </c>
       <c r="V104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W104" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC104">
         <v>0</v>
       </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T105">
         <v>33</v>
@@ -5111,33 +4796,30 @@
         <v>63</v>
       </c>
       <c r="V105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W105" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC105">
         <v>0</v>
       </c>
-      <c r="AD105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T106">
         <v>33</v>
@@ -5146,33 +4828,30 @@
         <v>63</v>
       </c>
       <c r="V106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W106" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC106">
         <v>0</v>
       </c>
-      <c r="AD106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T107">
         <v>33</v>
@@ -5181,33 +4860,30 @@
         <v>63</v>
       </c>
       <c r="V107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W107" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Z107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC107">
         <v>0</v>
       </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T108">
         <v>34</v>
@@ -5216,33 +4892,30 @@
         <v>64</v>
       </c>
       <c r="V108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W108" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="Z108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC108">
         <v>0</v>
       </c>
-      <c r="AD108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T109">
         <v>35</v>
@@ -5251,33 +4924,30 @@
         <v>75</v>
       </c>
       <c r="V109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W109" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Z109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC109">
         <v>0</v>
       </c>
-      <c r="AD109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T110">
         <v>36</v>
@@ -5286,33 +4956,30 @@
         <v>77</v>
       </c>
       <c r="V110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W110" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC110">
         <v>0.5</v>
       </c>
-      <c r="AD110">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T111">
         <v>36</v>
@@ -5321,33 +4988,30 @@
         <v>77</v>
       </c>
       <c r="V111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W111" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC111">
         <v>0.5</v>
       </c>
-      <c r="AD111">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T112">
         <v>36</v>
@@ -5356,33 +5020,30 @@
         <v>77</v>
       </c>
       <c r="V112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W112" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC112">
         <v>0.5</v>
       </c>
-      <c r="AD112">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T113">
         <v>36</v>
@@ -5391,33 +5052,30 @@
         <v>77</v>
       </c>
       <c r="V113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W113" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC113">
         <v>0.5</v>
       </c>
-      <c r="AD113">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T114">
         <v>36</v>
@@ -5426,33 +5084,30 @@
         <v>77</v>
       </c>
       <c r="V114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W114" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC114">
         <v>0.3</v>
       </c>
-      <c r="AD114">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T115">
         <v>36</v>
@@ -5461,33 +5116,30 @@
         <v>77</v>
       </c>
       <c r="V115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W115" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC115">
         <v>0.3</v>
       </c>
-      <c r="AD115">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T116">
         <v>36</v>
@@ -5496,33 +5148,30 @@
         <v>77</v>
       </c>
       <c r="V116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W116" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC116">
         <v>0.5</v>
       </c>
-      <c r="AD116">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T117">
         <v>36</v>
@@ -5531,33 +5180,30 @@
         <v>77</v>
       </c>
       <c r="V117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W117" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC117">
         <v>0.3</v>
       </c>
-      <c r="AD117">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T118">
         <v>36</v>
@@ -5566,33 +5212,30 @@
         <v>77</v>
       </c>
       <c r="V118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W118" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Z118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC118">
         <v>0.5</v>
       </c>
-      <c r="AD118">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T119">
         <v>37</v>
@@ -5601,33 +5244,30 @@
         <v>78</v>
       </c>
       <c r="V119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W119" s="2">
         <v>45041.153495370367</v>
       </c>
       <c r="Z119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC119">
         <v>0</v>
       </c>
-      <c r="AD119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T120">
         <v>38</v>
@@ -5636,33 +5276,30 @@
         <v>80</v>
       </c>
       <c r="V120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W120" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="Z120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC120">
         <v>0</v>
       </c>
-      <c r="AD120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T121">
         <v>39</v>
@@ -5671,33 +5308,30 @@
         <v>81</v>
       </c>
       <c r="V121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W121" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC121">
         <v>0</v>
       </c>
-      <c r="AD121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T122">
         <v>39</v>
@@ -5706,33 +5340,30 @@
         <v>81</v>
       </c>
       <c r="V122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W122" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC122">
         <v>0</v>
       </c>
-      <c r="AD122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T123">
         <v>39</v>
@@ -5741,33 +5372,30 @@
         <v>81</v>
       </c>
       <c r="V123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W123" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC123">
         <v>0</v>
       </c>
-      <c r="AD123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T124">
         <v>39</v>
@@ -5776,33 +5404,30 @@
         <v>81</v>
       </c>
       <c r="V124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W124" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC124">
         <v>0</v>
       </c>
-      <c r="AD124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T125">
         <v>39</v>
@@ -5811,33 +5436,30 @@
         <v>81</v>
       </c>
       <c r="V125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W125" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC125">
         <v>0</v>
       </c>
-      <c r="AD125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T126">
         <v>39</v>
@@ -5846,33 +5468,30 @@
         <v>81</v>
       </c>
       <c r="V126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W126" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC126">
         <v>0</v>
       </c>
-      <c r="AD126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T127">
         <v>39</v>
@@ -5881,33 +5500,30 @@
         <v>81</v>
       </c>
       <c r="V127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W127" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC127">
         <v>0</v>
       </c>
-      <c r="AD127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T128">
         <v>39</v>
@@ -5916,33 +5532,30 @@
         <v>81</v>
       </c>
       <c r="V128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W128" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC128">
         <v>0</v>
       </c>
-      <c r="AD128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T129">
         <v>39</v>
@@ -5951,33 +5564,30 @@
         <v>81</v>
       </c>
       <c r="V129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W129" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC129">
         <v>0</v>
       </c>
-      <c r="AD129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T130">
         <v>39</v>
@@ -5986,33 +5596,30 @@
         <v>81</v>
       </c>
       <c r="V130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W130" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Z130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC130">
         <v>0</v>
       </c>
-      <c r="AD130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T131">
         <v>40</v>
@@ -6021,33 +5628,30 @@
         <v>82</v>
       </c>
       <c r="V131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W131" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="Z131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC131">
         <v>0</v>
       </c>
-      <c r="AD131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T132">
         <v>40</v>
@@ -6056,33 +5660,30 @@
         <v>82</v>
       </c>
       <c r="V132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W132" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="Z132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC132">
         <v>0</v>
       </c>
-      <c r="AD132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T133">
         <v>40</v>
@@ -6091,33 +5692,30 @@
         <v>82</v>
       </c>
       <c r="V133" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W133" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="Z133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC133">
         <v>0</v>
       </c>
-      <c r="AD133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T134">
         <v>40</v>
@@ -6126,33 +5724,30 @@
         <v>82</v>
       </c>
       <c r="V134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W134" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="Z134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC134">
         <v>0</v>
       </c>
-      <c r="AD134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T135">
         <v>41</v>
@@ -6161,33 +5756,30 @@
         <v>83</v>
       </c>
       <c r="V135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W135" s="2">
         <v>45042.864039351851</v>
       </c>
       <c r="Z135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC135">
         <v>0</v>
       </c>
-      <c r="AD135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T136">
         <v>42</v>
@@ -6196,33 +5788,30 @@
         <v>84</v>
       </c>
       <c r="V136" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W136" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Z136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC136">
         <v>0</v>
       </c>
-      <c r="AD136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T137">
         <v>42</v>
@@ -6231,33 +5820,30 @@
         <v>84</v>
       </c>
       <c r="V137" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W137" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Z137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC137">
         <v>0</v>
       </c>
-      <c r="AD137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T138">
         <v>42</v>
@@ -6266,33 +5852,30 @@
         <v>84</v>
       </c>
       <c r="V138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W138" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Z138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC138">
         <v>0</v>
       </c>
-      <c r="AD138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T139">
         <v>42</v>
@@ -6301,33 +5884,30 @@
         <v>84</v>
       </c>
       <c r="V139" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W139" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Z139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC139">
         <v>0</v>
       </c>
-      <c r="AD139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T140">
         <v>42</v>
@@ -6336,33 +5916,30 @@
         <v>84</v>
       </c>
       <c r="V140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W140" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Z140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC140">
         <v>0</v>
       </c>
-      <c r="AD140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T141">
         <v>42</v>
@@ -6371,33 +5948,30 @@
         <v>84</v>
       </c>
       <c r="V141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W141" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Z141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC141">
         <v>0</v>
       </c>
-      <c r="AD141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T142">
         <v>43</v>
@@ -6406,33 +5980,30 @@
         <v>86</v>
       </c>
       <c r="V142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W142" s="2">
         <v>45043.572395833333</v>
       </c>
       <c r="Z142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC142">
         <v>0</v>
       </c>
-      <c r="AD142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T143">
         <v>44</v>
@@ -6441,33 +6012,30 @@
         <v>87</v>
       </c>
       <c r="V143" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W143" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Z143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC143">
         <v>0.3</v>
       </c>
-      <c r="AD143">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T144">
         <v>44</v>
@@ -6476,33 +6044,30 @@
         <v>87</v>
       </c>
       <c r="V144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W144" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Z144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC144">
         <v>0.5</v>
       </c>
-      <c r="AD144">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T145">
         <v>44</v>
@@ -6511,33 +6076,30 @@
         <v>87</v>
       </c>
       <c r="V145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W145" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Z145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC145">
         <v>0.5</v>
       </c>
-      <c r="AD145">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T146">
         <v>45</v>
@@ -6546,33 +6108,30 @@
         <v>88</v>
       </c>
       <c r="V146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W146" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Z146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC146">
         <v>0</v>
       </c>
-      <c r="AD146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T147">
         <v>45</v>
@@ -6581,33 +6140,30 @@
         <v>88</v>
       </c>
       <c r="V147" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W147" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Z147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC147">
         <v>0</v>
       </c>
-      <c r="AD147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T148">
         <v>45</v>
@@ -6616,33 +6172,30 @@
         <v>88</v>
       </c>
       <c r="V148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W148" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Z148" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC148">
         <v>0</v>
       </c>
-      <c r="AD148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T149">
         <v>45</v>
@@ -6651,33 +6204,30 @@
         <v>88</v>
       </c>
       <c r="V149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W149" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Z149" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC149">
         <v>0</v>
       </c>
-      <c r="AD149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T150">
         <v>45</v>
@@ -6686,33 +6236,30 @@
         <v>88</v>
       </c>
       <c r="V150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W150" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Z150" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC150">
         <v>0</v>
       </c>
-      <c r="AD150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T151">
         <v>46</v>
@@ -6721,33 +6268,30 @@
         <v>90</v>
       </c>
       <c r="V151" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W151" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC151">
         <v>0</v>
       </c>
-      <c r="AD151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T152">
         <v>46</v>
@@ -6756,33 +6300,30 @@
         <v>90</v>
       </c>
       <c r="V152" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W152" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC152">
         <v>0</v>
       </c>
-      <c r="AD152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T153">
         <v>46</v>
@@ -6791,33 +6332,30 @@
         <v>90</v>
       </c>
       <c r="V153" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W153" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC153">
         <v>0</v>
       </c>
-      <c r="AD153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T154">
         <v>46</v>
@@ -6826,33 +6364,30 @@
         <v>90</v>
       </c>
       <c r="V154" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W154" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC154">
         <v>0</v>
       </c>
-      <c r="AD154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T155">
         <v>46</v>
@@ -6861,33 +6396,30 @@
         <v>90</v>
       </c>
       <c r="V155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W155" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC155">
         <v>0</v>
       </c>
-      <c r="AD155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T156">
         <v>47</v>
@@ -6896,33 +6428,30 @@
         <v>91</v>
       </c>
       <c r="V156" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W156" s="2">
         <v>45043.916250000002</v>
       </c>
       <c r="Z156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC156">
         <v>0</v>
       </c>
-      <c r="AD156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T157">
         <v>47</v>
@@ -6931,33 +6460,30 @@
         <v>91</v>
       </c>
       <c r="V157" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W157" s="2">
         <v>45043.916250000002</v>
       </c>
       <c r="Z157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC157">
         <v>0</v>
       </c>
-      <c r="AD157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T158">
         <v>48</v>
@@ -6966,33 +6492,30 @@
         <v>92</v>
       </c>
       <c r="V158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W158" s="2">
         <v>45044.001712962963</v>
       </c>
       <c r="Z158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC158">
         <v>0</v>
       </c>
-      <c r="AD158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T159">
         <v>49</v>
@@ -7001,33 +6524,30 @@
         <v>93</v>
       </c>
       <c r="V159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W159" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Z159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC159">
         <v>0</v>
       </c>
-      <c r="AD159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T160">
         <v>49</v>
@@ -7036,33 +6556,30 @@
         <v>93</v>
       </c>
       <c r="V160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W160" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Z160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC160">
         <v>0</v>
       </c>
-      <c r="AD160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T161">
         <v>49</v>
@@ -7071,33 +6588,30 @@
         <v>93</v>
       </c>
       <c r="V161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W161" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Z161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC161">
         <v>0</v>
       </c>
-      <c r="AD161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T162">
         <v>49</v>
@@ -7106,33 +6620,30 @@
         <v>93</v>
       </c>
       <c r="V162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W162" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Z162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC162">
         <v>0</v>
       </c>
-      <c r="AD162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T163">
         <v>49</v>
@@ -7141,33 +6652,30 @@
         <v>93</v>
       </c>
       <c r="V163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W163" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Z163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC163">
         <v>0</v>
       </c>
-      <c r="AD163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R164">
         <v>163</v>
       </c>
       <c r="S164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T164">
         <v>50</v>
@@ -7176,33 +6684,30 @@
         <v>94</v>
       </c>
       <c r="V164" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W164" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="Z164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC164">
         <v>0</v>
       </c>
-      <c r="AD164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R165">
         <v>164</v>
       </c>
       <c r="S165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T165">
         <v>50</v>
@@ -7211,33 +6716,30 @@
         <v>94</v>
       </c>
       <c r="V165" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W165" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="Z165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC165">
         <v>0</v>
       </c>
-      <c r="AD165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R166">
         <v>165</v>
       </c>
       <c r="S166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T166">
         <v>51</v>
@@ -7246,33 +6748,30 @@
         <v>95</v>
       </c>
       <c r="V166" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W166" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC166">
         <v>0</v>
       </c>
-      <c r="AD166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R167">
         <v>166</v>
       </c>
       <c r="S167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T167">
         <v>51</v>
@@ -7281,33 +6780,30 @@
         <v>95</v>
       </c>
       <c r="V167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W167" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC167">
         <v>0</v>
       </c>
-      <c r="AD167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R168">
         <v>167</v>
       </c>
       <c r="S168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T168">
         <v>51</v>
@@ -7316,33 +6812,30 @@
         <v>95</v>
       </c>
       <c r="V168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W168" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC168">
         <v>0</v>
       </c>
-      <c r="AD168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R169">
         <v>168</v>
       </c>
       <c r="S169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T169">
         <v>51</v>
@@ -7351,33 +6844,30 @@
         <v>95</v>
       </c>
       <c r="V169" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W169" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC169">
         <v>0</v>
       </c>
-      <c r="AD169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R170">
         <v>169</v>
       </c>
       <c r="S170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T170">
         <v>51</v>
@@ -7386,33 +6876,30 @@
         <v>95</v>
       </c>
       <c r="V170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W170" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC170">
         <v>0</v>
       </c>
-      <c r="AD170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R171">
         <v>170</v>
       </c>
       <c r="S171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T171">
         <v>51</v>
@@ -7421,33 +6908,30 @@
         <v>95</v>
       </c>
       <c r="V171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W171" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC171">
         <v>0</v>
       </c>
-      <c r="AD171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R172">
         <v>171</v>
       </c>
       <c r="S172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T172">
         <v>51</v>
@@ -7456,33 +6940,30 @@
         <v>95</v>
       </c>
       <c r="V172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W172" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Z172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC172">
         <v>0</v>
       </c>
-      <c r="AD172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R173">
         <v>172</v>
       </c>
       <c r="S173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T173">
         <v>52</v>
@@ -7491,33 +6972,30 @@
         <v>96</v>
       </c>
       <c r="V173" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W173" s="2">
         <v>45044.898946759262</v>
       </c>
       <c r="Z173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC173">
         <v>0</v>
       </c>
-      <c r="AD173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R174">
         <v>173</v>
       </c>
       <c r="S174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T174">
         <v>53</v>
@@ -7526,33 +7004,30 @@
         <v>98</v>
       </c>
       <c r="V174" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W174" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="Z174" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC174">
         <v>0</v>
       </c>
-      <c r="AD174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R175">
         <v>174</v>
       </c>
       <c r="S175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T175">
         <v>53</v>
@@ -7561,33 +7036,30 @@
         <v>98</v>
       </c>
       <c r="V175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W175" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="Z175" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC175">
         <v>0</v>
       </c>
-      <c r="AD175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R176">
         <v>175</v>
       </c>
       <c r="S176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T176">
         <v>54</v>
@@ -7596,33 +7068,30 @@
         <v>99</v>
       </c>
       <c r="V176" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W176" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Z176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC176">
         <v>0</v>
       </c>
-      <c r="AD176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R177">
         <v>176</v>
       </c>
       <c r="S177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T177">
         <v>55</v>
@@ -7631,33 +7100,30 @@
         <v>100</v>
       </c>
       <c r="V177" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W177" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC177">
         <v>0</v>
       </c>
-      <c r="AD177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R178">
         <v>177</v>
       </c>
       <c r="S178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T178">
         <v>55</v>
@@ -7666,33 +7132,30 @@
         <v>100</v>
       </c>
       <c r="V178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W178" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC178">
         <v>0</v>
       </c>
-      <c r="AD178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R179">
         <v>178</v>
       </c>
       <c r="S179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T179">
         <v>55</v>
@@ -7701,33 +7164,30 @@
         <v>100</v>
       </c>
       <c r="V179" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W179" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC179">
         <v>0</v>
       </c>
-      <c r="AD179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R180">
         <v>179</v>
       </c>
       <c r="S180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T180">
         <v>55</v>
@@ -7736,33 +7196,30 @@
         <v>100</v>
       </c>
       <c r="V180" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W180" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC180">
         <v>0</v>
       </c>
-      <c r="AD180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R181">
         <v>180</v>
       </c>
       <c r="S181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T181">
         <v>55</v>
@@ -7771,33 +7228,30 @@
         <v>100</v>
       </c>
       <c r="V181" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W181" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC181">
         <v>0</v>
       </c>
-      <c r="AD181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R182">
         <v>181</v>
       </c>
       <c r="S182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T182">
         <v>56</v>
@@ -7806,33 +7260,30 @@
         <v>101</v>
       </c>
       <c r="V182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W182" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC182">
         <v>0</v>
       </c>
-      <c r="AD182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R183">
         <v>182</v>
       </c>
       <c r="S183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T183">
         <v>56</v>
@@ -7841,33 +7292,30 @@
         <v>101</v>
       </c>
       <c r="V183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W183" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC183">
         <v>0</v>
       </c>
-      <c r="AD183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R184">
         <v>183</v>
       </c>
       <c r="S184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T184">
         <v>56</v>
@@ -7876,33 +7324,30 @@
         <v>101</v>
       </c>
       <c r="V184" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W184" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC184">
         <v>0</v>
       </c>
-      <c r="AD184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R185">
         <v>184</v>
       </c>
       <c r="S185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T185">
         <v>56</v>
@@ -7911,33 +7356,30 @@
         <v>101</v>
       </c>
       <c r="V185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W185" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC185">
         <v>0</v>
       </c>
-      <c r="AD185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R186">
         <v>185</v>
       </c>
       <c r="S186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T186">
         <v>56</v>
@@ -7946,33 +7388,30 @@
         <v>101</v>
       </c>
       <c r="V186" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W186" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC186">
         <v>0</v>
       </c>
-      <c r="AD186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R187">
         <v>186</v>
       </c>
       <c r="S187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T187">
         <v>57</v>
@@ -7981,33 +7420,30 @@
         <v>102</v>
       </c>
       <c r="V187" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W187" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="Z187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC187">
         <v>0</v>
       </c>
-      <c r="AD187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R188">
         <v>187</v>
       </c>
       <c r="S188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T188">
         <v>57</v>
@@ -8016,33 +7452,30 @@
         <v>102</v>
       </c>
       <c r="V188" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W188" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="Z188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC188">
         <v>0</v>
       </c>
-      <c r="AD188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R189">
         <v>188</v>
       </c>
       <c r="S189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T189">
         <v>57</v>
@@ -8051,33 +7484,30 @@
         <v>102</v>
       </c>
       <c r="V189" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W189" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="Z189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC189">
         <v>0</v>
       </c>
-      <c r="AD189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R190">
         <v>189</v>
       </c>
       <c r="S190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T190">
         <v>57</v>
@@ -8086,33 +7516,30 @@
         <v>102</v>
       </c>
       <c r="V190" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W190" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="Z190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC190">
         <v>0</v>
       </c>
-      <c r="AD190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R191">
         <v>190</v>
       </c>
       <c r="S191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T191">
         <v>58</v>
@@ -8121,33 +7548,30 @@
         <v>103</v>
       </c>
       <c r="V191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W191" s="2">
         <v>45045.071967592587</v>
       </c>
       <c r="Z191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC191">
         <v>0</v>
       </c>
-      <c r="AD191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R192">
         <v>191</v>
       </c>
       <c r="S192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T192">
         <v>59</v>
@@ -8156,33 +7580,30 @@
         <v>104</v>
       </c>
       <c r="V192" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W192" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Z192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC192">
         <v>0</v>
       </c>
-      <c r="AD192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R193">
         <v>192</v>
       </c>
       <c r="S193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T193">
         <v>59</v>
@@ -8191,33 +7612,30 @@
         <v>104</v>
       </c>
       <c r="V193" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W193" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Z193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC193">
         <v>0</v>
       </c>
-      <c r="AD193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R194">
         <v>193</v>
       </c>
       <c r="S194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T194">
         <v>59</v>
@@ -8226,33 +7644,30 @@
         <v>104</v>
       </c>
       <c r="V194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W194" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Z194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC194">
         <v>0</v>
       </c>
-      <c r="AD194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R195">
         <v>194</v>
       </c>
       <c r="S195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T195">
         <v>59</v>
@@ -8261,33 +7676,30 @@
         <v>104</v>
       </c>
       <c r="V195" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W195" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Z195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC195">
         <v>0</v>
       </c>
-      <c r="AD195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R196">
         <v>195</v>
       </c>
       <c r="S196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T196">
         <v>59</v>
@@ -8296,33 +7708,30 @@
         <v>104</v>
       </c>
       <c r="V196" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W196" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Z196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC196">
         <v>0</v>
       </c>
-      <c r="AD196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R197">
         <v>196</v>
       </c>
       <c r="S197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T197">
         <v>60</v>
@@ -8331,33 +7740,30 @@
         <v>105</v>
       </c>
       <c r="V197" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W197" s="2">
         <v>45045.136759259258</v>
       </c>
       <c r="Z197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC197">
         <v>0</v>
       </c>
-      <c r="AD197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R198">
         <v>197</v>
       </c>
       <c r="S198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T198">
         <v>61</v>
@@ -8366,33 +7772,30 @@
         <v>106</v>
       </c>
       <c r="V198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W198" s="2">
         <v>45045.147962962961</v>
       </c>
       <c r="Z198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC198">
         <v>0</v>
       </c>
-      <c r="AD198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R199">
         <v>198</v>
       </c>
       <c r="S199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T199">
         <v>61</v>
@@ -8401,33 +7804,30 @@
         <v>106</v>
       </c>
       <c r="V199" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W199" s="2">
         <v>45045.147962962961</v>
       </c>
       <c r="Z199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC199">
         <v>0</v>
       </c>
-      <c r="AD199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R200">
         <v>199</v>
       </c>
       <c r="S200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T200">
         <v>62</v>
@@ -8436,33 +7836,30 @@
         <v>109</v>
       </c>
       <c r="V200" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W200" s="2">
         <v>45045.178460648152</v>
       </c>
       <c r="Z200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC200">
         <v>0</v>
       </c>
-      <c r="AD200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R201">
         <v>200</v>
       </c>
       <c r="S201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T201">
         <v>63</v>
@@ -8471,33 +7868,30 @@
         <v>110</v>
       </c>
       <c r="V201" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W201" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="Z201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC201">
         <v>0</v>
       </c>
-      <c r="AD201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R202">
         <v>201</v>
       </c>
       <c r="S202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T202">
         <v>63</v>
@@ -8506,33 +7900,30 @@
         <v>110</v>
       </c>
       <c r="V202" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W202" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="Z202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC202">
         <v>0</v>
       </c>
-      <c r="AD202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R203">
         <v>202</v>
       </c>
       <c r="S203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T203">
         <v>64</v>
@@ -8541,33 +7932,30 @@
         <v>111</v>
       </c>
       <c r="V203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W203" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="Z203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC203">
         <v>0</v>
       </c>
-      <c r="AD203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R204">
         <v>203</v>
       </c>
       <c r="S204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T204">
         <v>65</v>
@@ -8576,33 +7964,30 @@
         <v>113</v>
       </c>
       <c r="V204" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W204" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="Z204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC204">
         <v>0</v>
       </c>
-      <c r="AD204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R205">
         <v>204</v>
       </c>
       <c r="S205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T205">
         <v>66</v>
@@ -8611,33 +7996,30 @@
         <v>114</v>
       </c>
       <c r="V205" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W205" s="2">
         <v>45048.514745370368</v>
       </c>
       <c r="Z205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC205">
         <v>0</v>
       </c>
-      <c r="AD205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R206">
         <v>205</v>
       </c>
       <c r="S206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T206">
         <v>67</v>
@@ -8646,33 +8028,30 @@
         <v>115</v>
       </c>
       <c r="V206" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W206" s="2">
         <v>45048.691724537042</v>
       </c>
       <c r="Z206" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC206">
         <v>0</v>
       </c>
-      <c r="AD206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R207">
         <v>206</v>
       </c>
       <c r="S207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T207">
         <v>68</v>
@@ -8681,33 +8060,30 @@
         <v>117</v>
       </c>
       <c r="V207" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W207" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="Z207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC207">
         <v>0</v>
       </c>
-      <c r="AD207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R208">
         <v>207</v>
       </c>
       <c r="S208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T208">
         <v>69</v>
@@ -8716,33 +8092,30 @@
         <v>118</v>
       </c>
       <c r="V208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W208" s="2">
         <v>45058.123055555552</v>
       </c>
       <c r="Z208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC208">
         <v>0</v>
       </c>
-      <c r="AD208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R209">
         <v>208</v>
       </c>
       <c r="S209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T209">
         <v>70</v>
@@ -8751,33 +8124,30 @@
         <v>119</v>
       </c>
       <c r="V209" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W209" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC209">
         <v>0</v>
       </c>
-      <c r="AD209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R210">
         <v>209</v>
       </c>
       <c r="S210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T210">
         <v>70</v>
@@ -8786,33 +8156,30 @@
         <v>119</v>
       </c>
       <c r="V210" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W210" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC210">
         <v>0</v>
       </c>
-      <c r="AD210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R211">
         <v>210</v>
       </c>
       <c r="S211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T211">
         <v>70</v>
@@ -8821,33 +8188,30 @@
         <v>119</v>
       </c>
       <c r="V211" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W211" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC211">
         <v>0</v>
       </c>
-      <c r="AD211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R212">
         <v>211</v>
       </c>
       <c r="S212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T212">
         <v>70</v>
@@ -8856,33 +8220,30 @@
         <v>119</v>
       </c>
       <c r="V212" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W212" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC212">
         <v>0</v>
       </c>
-      <c r="AD212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R213">
         <v>212</v>
       </c>
       <c r="S213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T213">
         <v>70</v>
@@ -8891,33 +8252,30 @@
         <v>119</v>
       </c>
       <c r="V213" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W213" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC213">
         <v>0</v>
       </c>
-      <c r="AD213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R214">
         <v>213</v>
       </c>
       <c r="S214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T214">
         <v>70</v>
@@ -8926,33 +8284,30 @@
         <v>119</v>
       </c>
       <c r="V214" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W214" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC214">
         <v>0</v>
       </c>
-      <c r="AD214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R215">
         <v>214</v>
       </c>
       <c r="S215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T215">
         <v>70</v>
@@ -8961,33 +8316,30 @@
         <v>119</v>
       </c>
       <c r="V215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W215" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC215">
         <v>0</v>
       </c>
-      <c r="AD215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R216">
         <v>215</v>
       </c>
       <c r="S216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T216">
         <v>70</v>
@@ -8996,33 +8348,30 @@
         <v>119</v>
       </c>
       <c r="V216" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W216" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC216">
         <v>0</v>
       </c>
-      <c r="AD216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R217">
         <v>216</v>
       </c>
       <c r="S217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T217">
         <v>70</v>
@@ -9031,18 +8380,15 @@
         <v>119</v>
       </c>
       <c r="V217" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W217" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Z217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC217">
-        <v>0</v>
-      </c>
-      <c r="AD217">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -5548,7 +5548,7 @@
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="83">
@@ -5609,7 +5609,7 @@
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84">
@@ -5670,7 +5670,7 @@
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85">
@@ -5731,7 +5731,7 @@
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86">

--- a/files/separadas/repeat_p21.xlsx
+++ b/files/separadas/repeat_p21.xlsx
@@ -642,7 +642,7 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1452,7 +1452,7 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -1513,7 +1513,7 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -1574,7 +1574,7 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -5121,7 +5121,7 @@
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76">
@@ -8548,7 +8548,7 @@
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132">
@@ -8609,7 +8609,7 @@
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="133">
@@ -8670,7 +8670,7 @@
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134">
@@ -8731,7 +8731,7 @@
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="135">
@@ -11298,7 +11298,7 @@
       <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr"/>
       <c r="AC176" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="177">
@@ -12275,7 +12275,7 @@
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr"/>
       <c r="AC192" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193">
@@ -12336,7 +12336,7 @@
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
@@ -12397,7 +12397,7 @@
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
@@ -12458,7 +12458,7 @@
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196">
@@ -12519,7 +12519,7 @@
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">
@@ -12641,7 +12641,7 @@
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="199">
@@ -12702,7 +12702,7 @@
       <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200">
@@ -12824,7 +12824,7 @@
       <c r="AA201" t="inlineStr"/>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="202">
@@ -12885,7 +12885,7 @@
       <c r="AA202" t="inlineStr"/>
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="203">
